--- a/v0.6/final_predictions_3.xlsx
+++ b/v0.6/final_predictions_3.xlsx
@@ -482,19 +482,19 @@
         <v>107.8509535832227</v>
       </c>
       <c r="C2" t="n">
-        <v>105.6682153447906</v>
+        <v>105.6682153429715</v>
       </c>
       <c r="D2" t="n">
-        <v>106.5329325197403</v>
+        <v>106.5329508198797</v>
       </c>
       <c r="E2" t="n">
-        <v>104.7665634155273</v>
+        <v>106.4830322265625</v>
       </c>
       <c r="F2" t="n">
-        <v>105.2446329309416</v>
+        <v>106.0973535387979</v>
       </c>
       <c r="G2" t="n">
-        <v>107.6317952198275</v>
+        <v>107.8638122337463</v>
       </c>
     </row>
     <row r="3">
@@ -505,19 +505,19 @@
         <v>108.7844431519284</v>
       </c>
       <c r="C3" t="n">
-        <v>105.6677318067671</v>
+        <v>105.6677318079865</v>
       </c>
       <c r="D3" t="n">
-        <v>106.8186485620777</v>
+        <v>106.8188315859877</v>
       </c>
       <c r="E3" t="n">
-        <v>105.0040969848633</v>
+        <v>106.7242279052734</v>
       </c>
       <c r="F3" t="n">
-        <v>105.3704499534345</v>
+        <v>106.2250576180541</v>
       </c>
       <c r="G3" t="n">
-        <v>107.5264785950914</v>
+        <v>107.5759514963414</v>
       </c>
     </row>
     <row r="4">
@@ -528,19 +528,19 @@
         <v>108.7349399785362</v>
       </c>
       <c r="C4" t="n">
-        <v>105.6737974503364</v>
+        <v>105.673797451581</v>
       </c>
       <c r="D4" t="n">
-        <v>106.3899699770904</v>
+        <v>106.3900820571964</v>
       </c>
       <c r="E4" t="n">
-        <v>105.2866668701172</v>
+        <v>107.0093154907227</v>
       </c>
       <c r="F4" t="n">
-        <v>105.5016375012425</v>
+        <v>106.3560123644117</v>
       </c>
       <c r="G4" t="n">
-        <v>108.5160615266582</v>
+        <v>108.4594212977916</v>
       </c>
     </row>
     <row r="5">
@@ -551,19 +551,19 @@
         <v>108.6854368051439</v>
       </c>
       <c r="C5" t="n">
-        <v>105.676290653548</v>
+        <v>105.6762906541499</v>
       </c>
       <c r="D5" t="n">
-        <v>106.3171610165251</v>
+        <v>106.3172775186914</v>
       </c>
       <c r="E5" t="n">
-        <v>105.5920333862305</v>
+        <v>107.3189392089844</v>
       </c>
       <c r="F5" t="n">
-        <v>105.6524752563111</v>
+        <v>106.508151974444</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5145022206184</v>
+        <v>108.653353813909</v>
       </c>
     </row>
     <row r="6">
@@ -574,19 +574,19 @@
         <v>108.6359336317516</v>
       </c>
       <c r="C6" t="n">
-        <v>105.6743758824245</v>
+        <v>105.6743758828697</v>
       </c>
       <c r="D6" t="n">
-        <v>106.4082729714935</v>
+        <v>106.4084016975175</v>
       </c>
       <c r="E6" t="n">
-        <v>105.8989181518555</v>
+        <v>107.6321868896484</v>
       </c>
       <c r="F6" t="n">
-        <v>105.8065847815183</v>
+        <v>106.6649380327296</v>
       </c>
       <c r="G6" t="n">
-        <v>108.569307536017</v>
+        <v>108.4588500174181</v>
       </c>
     </row>
     <row r="7">
@@ -597,19 +597,19 @@
         <v>107.9676407909561</v>
       </c>
       <c r="C7" t="n">
-        <v>105.6742817571854</v>
+        <v>105.6742817579245</v>
       </c>
       <c r="D7" t="n">
-        <v>106.2574323272363</v>
+        <v>106.2575797807258</v>
       </c>
       <c r="E7" t="n">
-        <v>106.1898345947266</v>
+        <v>107.9307479858398</v>
       </c>
       <c r="F7" t="n">
-        <v>105.9468137155833</v>
+        <v>106.8080191870422</v>
       </c>
       <c r="G7" t="n">
-        <v>108.4096306969991</v>
+        <v>108.4045072598451</v>
       </c>
     </row>
     <row r="8">
@@ -620,19 +620,19 @@
         <v>108.2646598313097</v>
       </c>
       <c r="C8" t="n">
-        <v>105.6746642834678</v>
+        <v>105.6746642842092</v>
       </c>
       <c r="D8" t="n">
-        <v>107.129280267103</v>
+        <v>107.129442295902</v>
       </c>
       <c r="E8" t="n">
-        <v>106.4461364746094</v>
+        <v>108.1961669921875</v>
       </c>
       <c r="F8" t="n">
-        <v>106.0988648790374</v>
+        <v>106.9658043718561</v>
       </c>
       <c r="G8" t="n">
-        <v>107.7689152416781</v>
+        <v>107.7437718877461</v>
       </c>
     </row>
     <row r="9">
@@ -643,19 +643,19 @@
         <v>108.5616788716632</v>
       </c>
       <c r="C9" t="n">
-        <v>105.6747560896682</v>
+        <v>105.6747560903381</v>
       </c>
       <c r="D9" t="n">
-        <v>107.9939084482724</v>
+        <v>107.9940538261851</v>
       </c>
       <c r="E9" t="n">
-        <v>106.5781326293945</v>
+        <v>108.34033203125</v>
       </c>
       <c r="F9" t="n">
-        <v>106.18882237537</v>
+        <v>107.0632540595408</v>
       </c>
       <c r="G9" t="n">
-        <v>107.6176829882844</v>
+        <v>107.6918552471439</v>
       </c>
     </row>
     <row r="10">
@@ -666,19 +666,19 @@
         <v>107.9358184785128</v>
       </c>
       <c r="C10" t="n">
-        <v>105.6746615923178</v>
+        <v>105.6746615929803</v>
       </c>
       <c r="D10" t="n">
-        <v>107.3071304326814</v>
+        <v>107.3072899287369</v>
       </c>
       <c r="E10" t="n">
-        <v>106.6656265258789</v>
+        <v>108.4469223022461</v>
       </c>
       <c r="F10" t="n">
-        <v>106.2129093796488</v>
+        <v>107.0952024142739</v>
       </c>
       <c r="G10" t="n">
-        <v>107.971793522327</v>
+        <v>108.0169908106116</v>
       </c>
     </row>
     <row r="11">
@@ -689,19 +689,19 @@
         <v>107.6918366255648</v>
       </c>
       <c r="C11" t="n">
-        <v>105.6746568555174</v>
+        <v>105.6746568562021</v>
       </c>
       <c r="D11" t="n">
-        <v>107.2646981471484</v>
+        <v>107.2648455613846</v>
       </c>
       <c r="E11" t="n">
-        <v>106.6875991821289</v>
+        <v>108.4860458374023</v>
       </c>
       <c r="F11" t="n">
-        <v>106.2226303263968</v>
+        <v>107.1132709577028</v>
       </c>
       <c r="G11" t="n">
-        <v>107.0197904061672</v>
+        <v>106.8835816476553</v>
       </c>
     </row>
     <row r="12">
@@ -712,19 +712,19 @@
         <v>107.4478547726168</v>
       </c>
       <c r="C12" t="n">
-        <v>105.674678667668</v>
+        <v>105.6746786683524</v>
       </c>
       <c r="D12" t="n">
-        <v>107.3825225923668</v>
+        <v>107.3826809312888</v>
       </c>
       <c r="E12" t="n">
-        <v>106.6575317382812</v>
+        <v>108.4710006713867</v>
       </c>
       <c r="F12" t="n">
-        <v>106.2110190858721</v>
+        <v>107.1093956579991</v>
       </c>
       <c r="G12" t="n">
-        <v>106.8630055924672</v>
+        <v>106.8001083451531</v>
       </c>
     </row>
     <row r="13">
@@ -735,19 +735,19 @@
         <v>107.2038729196687</v>
       </c>
       <c r="C13" t="n">
-        <v>105.6746820114265</v>
+        <v>105.6746820121052</v>
       </c>
       <c r="D13" t="n">
-        <v>107.3107581449683</v>
+        <v>107.3109058732177</v>
       </c>
       <c r="E13" t="n">
-        <v>106.6017990112305</v>
+        <v>108.4274597167969</v>
       </c>
       <c r="F13" t="n">
-        <v>106.1813134363564</v>
+        <v>107.0856929668478</v>
       </c>
       <c r="G13" t="n">
-        <v>106.4458436598862</v>
+        <v>106.3594571638052</v>
       </c>
     </row>
     <row r="14">
@@ -758,19 +758,19 @@
         <v>107.2463053673138</v>
       </c>
       <c r="C14" t="n">
-        <v>105.6746771686882</v>
+        <v>105.6746771693666</v>
       </c>
       <c r="D14" t="n">
-        <v>108.1871794601754</v>
+        <v>108.1873503306251</v>
       </c>
       <c r="E14" t="n">
-        <v>106.5475921630859</v>
+        <v>108.3813858032227</v>
       </c>
       <c r="F14" t="n">
-        <v>106.1790543999014</v>
+        <v>107.0893567633717</v>
       </c>
       <c r="G14" t="n">
-        <v>106.0785071052144</v>
+        <v>105.9773815680669</v>
       </c>
     </row>
     <row r="15">
@@ -781,19 +781,19 @@
         <v>105.7505919371824</v>
       </c>
       <c r="C15" t="n">
-        <v>105.6746770283653</v>
+        <v>105.6746770290453</v>
       </c>
       <c r="D15" t="n">
-        <v>108.7313677559293</v>
+        <v>108.7316550498782</v>
       </c>
       <c r="E15" t="n">
-        <v>106.4861450195312</v>
+        <v>108.3239669799805</v>
       </c>
       <c r="F15" t="n">
-        <v>106.1638441818378</v>
+        <v>107.0773858795015</v>
       </c>
       <c r="G15" t="n">
-        <v>105.9824625641063</v>
+        <v>105.9808614158089</v>
       </c>
     </row>
     <row r="16">
@@ -801,22 +801,22 @@
         <v>44903</v>
       </c>
       <c r="B16" t="n">
-        <v>105.3793181367404</v>
+        <v>105.3793181367405</v>
       </c>
       <c r="C16" t="n">
-        <v>105.6746782186579</v>
+        <v>105.6746782193378</v>
       </c>
       <c r="D16" t="n">
-        <v>108.1989632255029</v>
+        <v>108.1992045581153</v>
       </c>
       <c r="E16" t="n">
-        <v>106.3736190795898</v>
+        <v>108.2145385742188</v>
       </c>
       <c r="F16" t="n">
-        <v>106.0929570151125</v>
+        <v>107.0071879164121</v>
       </c>
       <c r="G16" t="n">
-        <v>105.5704103089679</v>
+        <v>105.4220661112238</v>
       </c>
     </row>
     <row r="17">
@@ -827,19 +827,19 @@
         <v>105.0504767839436</v>
       </c>
       <c r="C17" t="n">
-        <v>105.6746783312159</v>
+        <v>105.6746783318954</v>
       </c>
       <c r="D17" t="n">
-        <v>108.1205596554377</v>
+        <v>108.1207971209193</v>
       </c>
       <c r="E17" t="n">
-        <v>106.2250061035156</v>
+        <v>108.0678329467773</v>
       </c>
       <c r="F17" t="n">
-        <v>106.0169241761866</v>
+        <v>106.9322542890293</v>
       </c>
       <c r="G17" t="n">
-        <v>105.3089181929388</v>
+        <v>105.2324389541211</v>
       </c>
     </row>
     <row r="18">
@@ -850,19 +850,19 @@
         <v>104.9797587355891</v>
       </c>
       <c r="C18" t="n">
-        <v>105.6746780792145</v>
+        <v>105.674678079894</v>
       </c>
       <c r="D18" t="n">
-        <v>108.243004453501</v>
+        <v>108.2432578219146</v>
       </c>
       <c r="E18" t="n">
-        <v>106.0436019897461</v>
+        <v>107.8856658935547</v>
       </c>
       <c r="F18" t="n">
-        <v>105.9302524626463</v>
+        <v>106.845843628785</v>
       </c>
       <c r="G18" t="n">
-        <v>105.1815853917247</v>
+        <v>105.0010852268258</v>
       </c>
     </row>
     <row r="19">
@@ -873,19 +873,19 @@
         <v>104.9090406872346</v>
       </c>
       <c r="C19" t="n">
-        <v>105.6746780800236</v>
+        <v>105.6746780807031</v>
       </c>
       <c r="D19" t="n">
-        <v>108.1148961747673</v>
+        <v>108.1151576701802</v>
       </c>
       <c r="E19" t="n">
-        <v>105.8461990356445</v>
+        <v>107.6846008300781</v>
       </c>
       <c r="F19" t="n">
-        <v>105.8285779846735</v>
+        <v>106.7425240087484</v>
       </c>
       <c r="G19" t="n">
-        <v>105.3387743109748</v>
+        <v>105.1958142581309</v>
       </c>
     </row>
     <row r="20">
@@ -896,19 +896,19 @@
         <v>104.8383226388801</v>
       </c>
       <c r="C20" t="n">
-        <v>105.6746781435039</v>
+        <v>105.6746781441835</v>
       </c>
       <c r="D20" t="n">
-        <v>109.0033034876135</v>
+        <v>109.0035861057065</v>
       </c>
       <c r="E20" t="n">
-        <v>105.6521377563477</v>
+        <v>107.4839096069336</v>
       </c>
       <c r="F20" t="n">
-        <v>105.7571816028892</v>
+        <v>106.6700710023543</v>
       </c>
       <c r="G20" t="n">
-        <v>104.9354972686793</v>
+        <v>104.7753725074434</v>
       </c>
     </row>
     <row r="21">
@@ -919,19 +919,19 @@
         <v>106.6628693286466</v>
       </c>
       <c r="C21" t="n">
-        <v>105.6746781464791</v>
+        <v>105.6746781471587</v>
       </c>
       <c r="D21" t="n">
-        <v>109.6977210911987</v>
+        <v>109.6980264610315</v>
       </c>
       <c r="E21" t="n">
-        <v>105.4782333374023</v>
+        <v>107.3005981445312</v>
       </c>
       <c r="F21" t="n">
-        <v>105.690337972958</v>
+        <v>106.6003608480421</v>
       </c>
       <c r="G21" t="n">
-        <v>105.3280551565254</v>
+        <v>104.9912157796604</v>
       </c>
     </row>
     <row r="22">
@@ -942,19 +942,19 @@
         <v>106.5143598084698</v>
       </c>
       <c r="C22" t="n">
-        <v>105.6746781333206</v>
+        <v>105.6746781340001</v>
       </c>
       <c r="D22" t="n">
-        <v>109.0980817523557</v>
+        <v>109.0983850570685</v>
       </c>
       <c r="E22" t="n">
-        <v>105.3356704711914</v>
+        <v>107.1453475952148</v>
       </c>
       <c r="F22" t="n">
-        <v>105.6026344826214</v>
+        <v>106.5054672531466</v>
       </c>
       <c r="G22" t="n">
-        <v>105.8123348141174</v>
+        <v>106.0686234387012</v>
       </c>
     </row>
     <row r="23">
@@ -965,19 +965,19 @@
         <v>107.1826607424271</v>
       </c>
       <c r="C23" t="n">
-        <v>105.6746781338539</v>
+        <v>105.6746781345335</v>
       </c>
       <c r="D23" t="n">
-        <v>109.0279892409984</v>
+        <v>109.0282802123153</v>
       </c>
       <c r="E23" t="n">
-        <v>105.2433853149414</v>
+        <v>107.0401306152344</v>
       </c>
       <c r="F23" t="n">
-        <v>105.5548163507684</v>
+        <v>106.4513072540048</v>
       </c>
       <c r="G23" t="n">
-        <v>106.3674531669277</v>
+        <v>106.2437225908742</v>
       </c>
     </row>
     <row r="24">
@@ -988,19 +988,19 @@
         <v>105.6975574474975</v>
       </c>
       <c r="C24" t="n">
-        <v>105.6746781371919</v>
+        <v>105.6746781378715</v>
       </c>
       <c r="D24" t="n">
-        <v>109.1569322089321</v>
+        <v>109.1572383544036</v>
       </c>
       <c r="E24" t="n">
-        <v>105.2022247314453</v>
+        <v>106.9863510131836</v>
       </c>
       <c r="F24" t="n">
-        <v>105.5379993125183</v>
+        <v>106.4285999176367</v>
       </c>
       <c r="G24" t="n">
-        <v>106.4591951784461</v>
+        <v>106.3796868961754</v>
       </c>
     </row>
     <row r="25">
@@ -1011,19 +1011,19 @@
         <v>105.5101521914095</v>
       </c>
       <c r="C25" t="n">
-        <v>105.6746781372043</v>
+        <v>105.6746781378839</v>
       </c>
       <c r="D25" t="n">
-        <v>109.0496254833258</v>
+        <v>109.0499246410647</v>
       </c>
       <c r="E25" t="n">
-        <v>105.1260147094727</v>
+        <v>106.9029312133789</v>
       </c>
       <c r="F25" t="n">
-        <v>105.4971177636953</v>
+        <v>106.3840971190181</v>
       </c>
       <c r="G25" t="n">
-        <v>105.8226906670143</v>
+        <v>105.7902296955253</v>
       </c>
     </row>
     <row r="26">
@@ -1034,19 +1034,19 @@
         <v>105.3227469353216</v>
       </c>
       <c r="C26" t="n">
-        <v>105.6746781365189</v>
+        <v>105.6746781371985</v>
       </c>
       <c r="D26" t="n">
-        <v>109.9388950857212</v>
+        <v>109.9392185274196</v>
       </c>
       <c r="E26" t="n">
-        <v>105.0132064819336</v>
+        <v>106.7924880981445</v>
       </c>
       <c r="F26" t="n">
-        <v>105.4661089365991</v>
+        <v>106.3563097927973</v>
       </c>
       <c r="G26" t="n">
-        <v>105.7881418418134</v>
+        <v>106.0010649392641</v>
       </c>
     </row>
     <row r="27">
@@ -1057,19 +1057,19 @@
         <v>105.1353416792337</v>
       </c>
       <c r="C27" t="n">
-        <v>105.674678136574</v>
+        <v>105.6746781372536</v>
       </c>
       <c r="D27" t="n">
-        <v>110.5507643378679</v>
+        <v>110.5511683550404</v>
       </c>
       <c r="E27" t="n">
-        <v>104.8982238769531</v>
+        <v>106.6857528686523</v>
       </c>
       <c r="F27" t="n">
-        <v>105.4262117458135</v>
+        <v>106.3219858251324</v>
       </c>
       <c r="G27" t="n">
-        <v>105.6074277759778</v>
+        <v>105.5100041948049</v>
       </c>
     </row>
     <row r="28">
@@ -1080,19 +1080,19 @@
         <v>105.5066154796756</v>
       </c>
       <c r="C28" t="n">
-        <v>105.6746781367478</v>
+        <v>105.6746781374274</v>
       </c>
       <c r="D28" t="n">
-        <v>109.9907782002117</v>
+        <v>109.9911538006622</v>
       </c>
       <c r="E28" t="n">
-        <v>104.8220977783203</v>
+        <v>106.617431640625</v>
       </c>
       <c r="F28" t="n">
-        <v>105.3726292580014</v>
+        <v>106.2712876235691</v>
       </c>
       <c r="G28" t="n">
-        <v>105.8406516166802</v>
+        <v>105.4630913212353</v>
       </c>
     </row>
     <row r="29">
@@ -1103,19 +1103,19 @@
         <v>105.6869473122958</v>
       </c>
       <c r="C29" t="n">
-        <v>105.6746781367412</v>
+        <v>105.6746781374208</v>
       </c>
       <c r="D29" t="n">
-        <v>109.9116103350951</v>
+        <v>109.9119775837427</v>
       </c>
       <c r="E29" t="n">
-        <v>104.7895431518555</v>
+        <v>106.5847396850586</v>
       </c>
       <c r="F29" t="n">
-        <v>105.3542301852083</v>
+        <v>106.2527272217877</v>
       </c>
       <c r="G29" t="n">
-        <v>105.9888685468444</v>
+        <v>105.7938680339894</v>
       </c>
     </row>
     <row r="30">
@@ -1126,19 +1126,19 @@
         <v>105.5066154796756</v>
       </c>
       <c r="C30" t="n">
-        <v>105.6746781367057</v>
+        <v>105.6746781373853</v>
       </c>
       <c r="D30" t="n">
-        <v>110.0415498735572</v>
+        <v>110.0419340260153</v>
       </c>
       <c r="E30" t="n">
-        <v>104.7775192260742</v>
+        <v>106.5626983642578</v>
       </c>
       <c r="F30" t="n">
-        <v>105.3519141601873</v>
+        <v>106.2457474963265</v>
       </c>
       <c r="G30" t="n">
-        <v>105.4305558127143</v>
+        <v>105.5821757498366</v>
       </c>
     </row>
     <row r="31">
@@ -1149,19 +1149,19 @@
         <v>104.2867089126562</v>
       </c>
       <c r="C31" t="n">
-        <v>105.67467813671</v>
+        <v>105.6746781373896</v>
       </c>
       <c r="D31" t="n">
-        <v>109.9198539277009</v>
+        <v>109.920239551116</v>
       </c>
       <c r="E31" t="n">
-        <v>104.7930145263672</v>
+        <v>106.5640411376953</v>
       </c>
       <c r="F31" t="n">
-        <v>105.3561864850394</v>
+        <v>106.2427379582452</v>
       </c>
       <c r="G31" t="n">
-        <v>105.9974322507047</v>
+        <v>105.8685534539053</v>
       </c>
     </row>
     <row r="32">
@@ -1172,19 +1172,19 @@
         <v>104.1997252275904</v>
       </c>
       <c r="C32" t="n">
-        <v>105.674678136719</v>
+        <v>105.6746781373986</v>
       </c>
       <c r="D32" t="n">
-        <v>110.8120663512996</v>
+        <v>110.8124754424416</v>
       </c>
       <c r="E32" t="n">
-        <v>104.8142395019531</v>
+        <v>106.5699005126953</v>
       </c>
       <c r="F32" t="n">
-        <v>105.3918460393008</v>
+        <v>106.2725688849725</v>
       </c>
       <c r="G32" t="n">
-        <v>104.7076950540592</v>
+        <v>105.0073833929372</v>
       </c>
     </row>
     <row r="33">
@@ -1195,19 +1195,19 @@
         <v>104.1127415425247</v>
       </c>
       <c r="C33" t="n">
-        <v>105.6746781367183</v>
+        <v>105.6746781373979</v>
       </c>
       <c r="D33" t="n">
-        <v>111.4629069645198</v>
+        <v>111.4633603454428</v>
       </c>
       <c r="E33" t="n">
-        <v>104.8248825073242</v>
+        <v>106.5644607543945</v>
       </c>
       <c r="F33" t="n">
-        <v>105.4154543374408</v>
+        <v>106.289526204377</v>
       </c>
       <c r="G33" t="n">
-        <v>104.4605200246002</v>
+        <v>104.5385113823298</v>
       </c>
     </row>
     <row r="34">
@@ -1218,19 +1218,19 @@
         <v>104.025757857459</v>
       </c>
       <c r="C34" t="n">
-        <v>105.6746781367164</v>
+        <v>105.674678137396</v>
       </c>
       <c r="D34" t="n">
-        <v>110.8854187246072</v>
+        <v>110.8858606807358</v>
       </c>
       <c r="E34" t="n">
-        <v>104.8130035400391</v>
+        <v>106.5359649658203</v>
       </c>
       <c r="F34" t="n">
-        <v>105.3932967383438</v>
+        <v>106.2579993188716</v>
       </c>
       <c r="G34" t="n">
-        <v>104.4292375757936</v>
+        <v>104.2487986044369</v>
       </c>
     </row>
     <row r="35">
@@ -1241,19 +1241,19 @@
         <v>103.9387741723933</v>
       </c>
       <c r="C35" t="n">
-        <v>105.6746781367167</v>
+        <v>105.6746781373963</v>
       </c>
       <c r="D35" t="n">
-        <v>110.8085076338649</v>
+        <v>110.8089379788675</v>
       </c>
       <c r="E35" t="n">
-        <v>104.7715072631836</v>
+        <v>106.477424621582</v>
       </c>
       <c r="F35" t="n">
-        <v>105.370517071315</v>
+        <v>106.2267200732421</v>
       </c>
       <c r="G35" t="n">
-        <v>103.7890113333305</v>
+        <v>103.6809319623892</v>
       </c>
     </row>
     <row r="36">
@@ -1264,19 +1264,19 @@
         <v>103.8517904873276</v>
       </c>
       <c r="C36" t="n">
-        <v>105.6746781367172</v>
+        <v>105.6746781373968</v>
       </c>
       <c r="D36" t="n">
-        <v>110.94003078654</v>
+        <v>110.9404777325841</v>
       </c>
       <c r="E36" t="n">
-        <v>104.6975021362305</v>
+        <v>106.3859329223633</v>
       </c>
       <c r="F36" t="n">
-        <v>105.3374572033338</v>
+        <v>106.1854367904963</v>
       </c>
       <c r="G36" t="n">
-        <v>103.7562556962862</v>
+        <v>103.6384831584641</v>
       </c>
     </row>
     <row r="37">
@@ -1287,19 +1287,19 @@
         <v>102.547019025018</v>
       </c>
       <c r="C37" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D37" t="n">
-        <v>110.8237971703086</v>
+        <v>110.8242397454255</v>
       </c>
       <c r="E37" t="n">
-        <v>104.5912017822266</v>
+        <v>106.2618637084961</v>
       </c>
       <c r="F37" t="n">
-        <v>105.2813745644372</v>
+        <v>106.120557347216</v>
       </c>
       <c r="G37" t="n">
-        <v>103.366610187044</v>
+        <v>103.2167515519862</v>
       </c>
     </row>
     <row r="38">
@@ -1310,19 +1310,19 @@
         <v>102.3666871923979</v>
       </c>
       <c r="C38" t="n">
-        <v>105.674678136717</v>
+        <v>105.6746781373966</v>
       </c>
       <c r="D38" t="n">
-        <v>111.7161569093155</v>
+        <v>111.7166240039935</v>
       </c>
       <c r="E38" t="n">
-        <v>104.4351959228516</v>
+        <v>106.0902404785156</v>
       </c>
       <c r="F38" t="n">
-        <v>105.2289950527244</v>
+        <v>106.0626051241666</v>
       </c>
       <c r="G38" t="n">
-        <v>102.2519730857829</v>
+        <v>102.1637036050801</v>
       </c>
     </row>
     <row r="39">
@@ -1333,19 +1333,19 @@
         <v>102.5655847383306</v>
       </c>
       <c r="C39" t="n">
-        <v>105.674678136717</v>
+        <v>105.6746781373966</v>
       </c>
       <c r="D39" t="n">
-        <v>112.3457262300534</v>
+        <v>112.3462586238407</v>
       </c>
       <c r="E39" t="n">
-        <v>104.2424163818359</v>
+        <v>105.8869934082031</v>
       </c>
       <c r="F39" t="n">
-        <v>105.1509494198791</v>
+        <v>105.9810740280468</v>
       </c>
       <c r="G39" t="n">
-        <v>102.2447962169118</v>
+        <v>102.2169021414329</v>
       </c>
     </row>
     <row r="40">
@@ -1356,19 +1356,19 @@
         <v>102.7644822842633</v>
       </c>
       <c r="C40" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D40" t="n">
-        <v>111.7784287057362</v>
+        <v>111.7789400587446</v>
       </c>
       <c r="E40" t="n">
-        <v>104.0261764526367</v>
+        <v>105.6629180908203</v>
       </c>
       <c r="F40" t="n">
-        <v>105.0275543358432</v>
+        <v>105.8531175466982</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2985610032327</v>
+        <v>102.2694176271259</v>
       </c>
     </row>
     <row r="41">
@@ -1379,19 +1379,19 @@
         <v>102.9633798301959</v>
       </c>
       <c r="C41" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D41" t="n">
-        <v>111.699224378819</v>
+        <v>111.6997256369814</v>
       </c>
       <c r="E41" t="n">
-        <v>103.798095703125</v>
+        <v>105.4259490966797</v>
       </c>
       <c r="F41" t="n">
-        <v>104.9120167854837</v>
+        <v>105.7335122905512</v>
       </c>
       <c r="G41" t="n">
-        <v>102.355241969444</v>
+        <v>102.4637121338149</v>
       </c>
     </row>
     <row r="42">
@@ -1402,19 +1402,19 @@
         <v>103.1622773761286</v>
       </c>
       <c r="C42" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D42" t="n">
-        <v>111.8309584145795</v>
+        <v>111.8314768292439</v>
       </c>
       <c r="E42" t="n">
-        <v>103.5669631958008</v>
+        <v>105.1820297241211</v>
       </c>
       <c r="F42" t="n">
-        <v>104.8009027037032</v>
+        <v>105.6168378985317</v>
       </c>
       <c r="G42" t="n">
-        <v>102.2496872548775</v>
+        <v>102.3843963292839</v>
       </c>
     </row>
     <row r="43">
@@ -1425,19 +1425,19 @@
         <v>102.5151967125747</v>
       </c>
       <c r="C43" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D43" t="n">
-        <v>111.711046692857</v>
+        <v>111.7115638626904</v>
       </c>
       <c r="E43" t="n">
-        <v>103.3387756347656</v>
+        <v>104.9355163574219</v>
       </c>
       <c r="F43" t="n">
-        <v>104.6841696513379</v>
+        <v>105.491281579092</v>
       </c>
       <c r="G43" t="n">
-        <v>102.0168873100972</v>
+        <v>102.1033017033409</v>
       </c>
     </row>
     <row r="44">
@@ -1448,19 +1448,19 @@
         <v>104.0109020495442</v>
       </c>
       <c r="C44" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D44" t="n">
-        <v>112.6041303974579</v>
+        <v>112.6046717951012</v>
       </c>
       <c r="E44" t="n">
-        <v>103.1157608032227</v>
+        <v>104.7018051147461</v>
       </c>
       <c r="F44" t="n">
-        <v>104.5985196561799</v>
+        <v>105.4026390721409</v>
       </c>
       <c r="G44" t="n">
-        <v>102.5681324462956</v>
+        <v>102.3794700671834</v>
       </c>
     </row>
     <row r="45">
@@ -1471,19 +1471,19 @@
         <v>102.8122157529283</v>
       </c>
       <c r="C45" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D45" t="n">
-        <v>113.2438061849342</v>
+        <v>113.2444003865731</v>
       </c>
       <c r="E45" t="n">
-        <v>102.9437103271484</v>
+        <v>104.52490234375</v>
       </c>
       <c r="F45" t="n">
-        <v>104.5310543877414</v>
+        <v>105.3344474787718</v>
       </c>
       <c r="G45" t="n">
-        <v>103.6804966037537</v>
+        <v>103.5304591115316</v>
       </c>
     </row>
     <row r="46">
@@ -1494,19 +1494,19 @@
         <v>103.0650380363507</v>
       </c>
       <c r="C46" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D46" t="n">
-        <v>112.6719555740985</v>
+        <v>112.6725345823605</v>
       </c>
       <c r="E46" t="n">
-        <v>102.8087387084961</v>
+        <v>104.3907012939453</v>
       </c>
       <c r="F46" t="n">
-        <v>104.447905890428</v>
+        <v>105.2508025935043</v>
       </c>
       <c r="G46" t="n">
-        <v>102.9382201910297</v>
+        <v>102.9825053681328</v>
       </c>
     </row>
     <row r="47">
@@ -1517,19 +1517,19 @@
         <v>103.3178603197732</v>
       </c>
       <c r="C47" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D47" t="n">
-        <v>112.5933602247634</v>
+        <v>112.5939280221927</v>
       </c>
       <c r="E47" t="n">
-        <v>102.7172393798828</v>
+        <v>104.3033065795898</v>
       </c>
       <c r="F47" t="n">
-        <v>104.4002375030179</v>
+        <v>105.2052017388651</v>
       </c>
       <c r="G47" t="n">
-        <v>103.3433296022825</v>
+        <v>103.3859054171426</v>
       </c>
     </row>
     <row r="48">
@@ -1540,19 +1540,19 @@
         <v>103.5706826031957</v>
       </c>
       <c r="C48" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D48" t="n">
-        <v>112.7254809047187</v>
+        <v>112.7260657479543</v>
       </c>
       <c r="E48" t="n">
-        <v>102.6804580688477</v>
+        <v>104.2697982788086</v>
       </c>
       <c r="F48" t="n">
-        <v>104.3856842930433</v>
+        <v>105.1926153996912</v>
       </c>
       <c r="G48" t="n">
-        <v>103.4094901585459</v>
+        <v>103.3735452726938</v>
       </c>
     </row>
     <row r="49">
@@ -1563,19 +1563,19 @@
         <v>103.3213970315071</v>
       </c>
       <c r="C49" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D49" t="n">
-        <v>112.6070013050558</v>
+        <v>112.6075828959109</v>
       </c>
       <c r="E49" t="n">
-        <v>102.707275390625</v>
+        <v>104.2953643798828</v>
       </c>
       <c r="F49" t="n">
-        <v>104.3956738363299</v>
+        <v>105.2016847671744</v>
       </c>
       <c r="G49" t="n">
-        <v>103.4188669991425</v>
+        <v>103.5711874348601</v>
       </c>
     </row>
     <row r="50">
@@ -1586,19 +1586,19 @@
         <v>103.1410571057251</v>
       </c>
       <c r="C50" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D50" t="n">
-        <v>113.5001052326025</v>
+        <v>113.5007113815638</v>
       </c>
       <c r="E50" t="n">
-        <v>102.7789154052734</v>
+        <v>104.3634796142578</v>
       </c>
       <c r="F50" t="n">
-        <v>104.4564019739233</v>
+        <v>105.2623386874988</v>
       </c>
       <c r="G50" t="n">
-        <v>103.4906666443579</v>
+        <v>103.5814799893696</v>
       </c>
     </row>
     <row r="51">
@@ -1609,19 +1609,19 @@
         <v>104.7004151607432</v>
       </c>
       <c r="C51" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D51" t="n">
-        <v>114.1342983378684</v>
+        <v>114.1349642901816</v>
       </c>
       <c r="E51" t="n">
-        <v>102.882682800293</v>
+        <v>104.4616851806641</v>
       </c>
       <c r="F51" t="n">
-        <v>104.5258062940611</v>
+        <v>105.3300596938561</v>
       </c>
       <c r="G51" t="n">
-        <v>103.4090685847168</v>
+        <v>103.5931060101246</v>
       </c>
     </row>
     <row r="52">
@@ -1632,19 +1632,19 @@
         <v>106.5143598084698</v>
       </c>
       <c r="C52" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D52" t="n">
-        <v>113.5650679325832</v>
+        <v>113.5657154794309</v>
       </c>
       <c r="E52" t="n">
-        <v>103.0120239257812</v>
+        <v>104.5868148803711</v>
       </c>
       <c r="F52" t="n">
-        <v>104.5740372499711</v>
+        <v>105.3747706263625</v>
       </c>
       <c r="G52" t="n">
-        <v>104.9021121379692</v>
+        <v>104.8999859077624</v>
       </c>
     </row>
     <row r="53">
@@ -1655,19 +1655,19 @@
         <v>106.7017650645577</v>
       </c>
       <c r="C53" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D53" t="n">
-        <v>113.4858922437258</v>
+        <v>113.486529099094</v>
       </c>
       <c r="E53" t="n">
-        <v>103.1919708251953</v>
+        <v>104.7662048339844</v>
       </c>
       <c r="F53" t="n">
-        <v>104.6612020743749</v>
+        <v>105.4611102779132</v>
       </c>
       <c r="G53" t="n">
-        <v>106.2100379313282</v>
+        <v>105.9952765976152</v>
       </c>
     </row>
     <row r="54">
@@ -1678,19 +1678,19 @@
         <v>106.8891703206456</v>
       </c>
       <c r="C54" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D54" t="n">
-        <v>113.6180563963592</v>
+        <v>113.6187104677605</v>
       </c>
       <c r="E54" t="n">
-        <v>103.4287948608398</v>
+        <v>105.0070953369141</v>
       </c>
       <c r="F54" t="n">
-        <v>104.7825715664253</v>
+        <v>105.5842559994898</v>
       </c>
       <c r="G54" t="n">
-        <v>106.5834838640912</v>
+        <v>106.6267582305775</v>
       </c>
     </row>
     <row r="55">
@@ -1701,19 +1701,19 @@
         <v>107.0765755767336</v>
       </c>
       <c r="C55" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D55" t="n">
-        <v>113.4986358147505</v>
+        <v>113.4992876858501</v>
       </c>
       <c r="E55" t="n">
-        <v>103.7190856933594</v>
+        <v>105.3057632446289</v>
       </c>
       <c r="F55" t="n">
-        <v>104.9234206990023</v>
+        <v>105.7283830551644</v>
       </c>
       <c r="G55" t="n">
-        <v>106.9558685505116</v>
+        <v>106.9244411233623</v>
       </c>
     </row>
     <row r="56">
@@ -1724,19 +1724,19 @@
         <v>107.4584595123772</v>
       </c>
       <c r="C56" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D56" t="n">
-        <v>114.391918203663</v>
+        <v>114.3925945355262</v>
       </c>
       <c r="E56" t="n">
-        <v>104.0536270141602</v>
+        <v>105.6522369384766</v>
       </c>
       <c r="F56" t="n">
-        <v>105.114761465254</v>
+        <v>105.9267262277384</v>
       </c>
       <c r="G56" t="n">
-        <v>107.1031072556218</v>
+        <v>107.2392900609826</v>
       </c>
     </row>
     <row r="57">
@@ -1747,19 +1747,19 @@
         <v>107.511502095224</v>
       </c>
       <c r="C57" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D57" t="n">
-        <v>115.0287314736786</v>
+        <v>115.0294635748163</v>
       </c>
       <c r="E57" t="n">
-        <v>104.3981323242188</v>
+        <v>106.0113677978516</v>
       </c>
       <c r="F57" t="n">
-        <v>105.3038303021638</v>
+        <v>106.1235888534632</v>
       </c>
       <c r="G57" t="n">
-        <v>107.4778141101502</v>
+        <v>107.4816127150468</v>
       </c>
     </row>
     <row r="58">
@@ -1767,22 +1767,22 @@
         <v>44945</v>
       </c>
       <c r="B58" t="n">
-        <v>108.3919571742448</v>
+        <v>108.3919571742449</v>
       </c>
       <c r="C58" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D58" t="n">
-        <v>114.4583172949592</v>
+        <v>114.4590328773493</v>
       </c>
       <c r="E58" t="n">
-        <v>104.7405319213867</v>
+        <v>106.3715057373047</v>
       </c>
       <c r="F58" t="n">
-        <v>105.4578705252482</v>
+        <v>106.2845055663053</v>
       </c>
       <c r="G58" t="n">
-        <v>107.3733914401139</v>
+        <v>107.4344887737851</v>
       </c>
     </row>
     <row r="59">
@@ -1793,19 +1793,19 @@
         <v>108.7314086622435</v>
       </c>
       <c r="C59" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D59" t="n">
-        <v>114.379305075107</v>
+        <v>114.3800096075978</v>
       </c>
       <c r="E59" t="n">
-        <v>105.076789855957</v>
+        <v>106.7283401489258</v>
       </c>
       <c r="F59" t="n">
-        <v>105.6226957435319</v>
+        <v>106.4586225106637</v>
       </c>
       <c r="G59" t="n">
-        <v>108.7287231805102</v>
+        <v>108.4328749572293</v>
       </c>
     </row>
     <row r="60">
@@ -1816,19 +1816,19 @@
         <v>108.7172645130285</v>
       </c>
       <c r="C60" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D60" t="n">
-        <v>114.5115638072524</v>
+        <v>114.5122855181404</v>
       </c>
       <c r="E60" t="n">
-        <v>105.3739547729492</v>
+        <v>107.0497207641602</v>
       </c>
       <c r="F60" t="n">
-        <v>105.7740437891037</v>
+        <v>106.6215850813074</v>
       </c>
       <c r="G60" t="n">
-        <v>108.8320199625357</v>
+        <v>108.7173728133498</v>
       </c>
     </row>
     <row r="61">
@@ -1839,19 +1839,19 @@
         <v>108.7031203638134</v>
       </c>
       <c r="C61" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D61" t="n">
-        <v>114.3925181796891</v>
+        <v>114.393237043349</v>
       </c>
       <c r="E61" t="n">
-        <v>105.628173828125</v>
+        <v>107.3328247070312</v>
       </c>
       <c r="F61" t="n">
-        <v>105.8969820288627</v>
+        <v>106.7580253761995</v>
       </c>
       <c r="G61" t="n">
-        <v>108.7770072845923</v>
+        <v>108.6813342522964</v>
       </c>
     </row>
     <row r="62">
@@ -1862,19 +1862,19 @@
         <v>108.6889762145984</v>
       </c>
       <c r="C62" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D62" t="n">
-        <v>115.2858015770798</v>
+        <v>115.2865450014766</v>
       </c>
       <c r="E62" t="n">
-        <v>105.8499145507812</v>
+        <v>107.5856857299805</v>
       </c>
       <c r="F62" t="n">
-        <v>106.0322849206709</v>
+        <v>106.9100619721242</v>
       </c>
       <c r="G62" t="n">
-        <v>108.7610558058552</v>
+        <v>108.663486386062</v>
       </c>
     </row>
     <row r="63">
@@ -1885,19 +1885,19 @@
         <v>108.0843279986896</v>
       </c>
       <c r="C63" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D63" t="n">
-        <v>115.9212013438471</v>
+        <v>115.9220027525981</v>
       </c>
       <c r="E63" t="n">
-        <v>106.0533294677734</v>
+        <v>107.8190307617188</v>
       </c>
       <c r="F63" t="n">
-        <v>106.1512265346802</v>
+        <v>107.04466428632</v>
       </c>
       <c r="G63" t="n">
-        <v>108.8069842776028</v>
+        <v>108.5511764727665</v>
       </c>
     </row>
     <row r="64">
@@ -1908,19 +1908,19 @@
         <v>108.7844431519284</v>
       </c>
       <c r="C64" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D64" t="n">
-        <v>115.3514611571253</v>
+        <v>115.3522450287158</v>
       </c>
       <c r="E64" t="n">
-        <v>106.2450485229492</v>
+        <v>108.0366821289062</v>
       </c>
       <c r="F64" t="n">
-        <v>106.2304299261591</v>
+        <v>107.135124780598</v>
       </c>
       <c r="G64" t="n">
-        <v>108.0310150126612</v>
+        <v>107.9949831114322</v>
       </c>
     </row>
     <row r="65">
@@ -1928,22 +1928,22 @@
         <v>44952</v>
       </c>
       <c r="B65" t="n">
-        <v>109.1822382437938</v>
+        <v>109.1822382437937</v>
       </c>
       <c r="C65" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D65" t="n">
-        <v>115.2723018640445</v>
+        <v>115.2730748532515</v>
       </c>
       <c r="E65" t="n">
-        <v>106.4323348999023</v>
+        <v>108.2461013793945</v>
       </c>
       <c r="F65" t="n">
-        <v>106.3212420626891</v>
+        <v>107.2363193524382</v>
       </c>
       <c r="G65" t="n">
-        <v>108.7034170008034</v>
+        <v>108.6095415414269</v>
       </c>
     </row>
     <row r="66">
@@ -1954,19 +1954,19 @@
         <v>109.5800333356591</v>
       </c>
       <c r="C66" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D66" t="n">
-        <v>115.40456922541</v>
+        <v>115.4053594435998</v>
       </c>
       <c r="E66" t="n">
-        <v>106.618522644043</v>
+        <v>108.4510040283203</v>
       </c>
       <c r="F66" t="n">
-        <v>106.4174603462902</v>
+        <v>107.3416649975782</v>
       </c>
       <c r="G66" t="n">
-        <v>108.8670691584635</v>
+        <v>108.5839038880775</v>
       </c>
     </row>
     <row r="67">
@@ -1977,19 +1977,19 @@
         <v>109.6330732207853</v>
       </c>
       <c r="C67" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D67" t="n">
-        <v>115.2852826717525</v>
+        <v>115.2860703779915</v>
       </c>
       <c r="E67" t="n">
-        <v>106.8052825927734</v>
+        <v>108.6534576416016</v>
       </c>
       <c r="F67" t="n">
-        <v>106.5068796885143</v>
+        <v>107.4382077410332</v>
       </c>
       <c r="G67" t="n">
-        <v>108.7891692667151</v>
+        <v>108.5179738498252</v>
       </c>
     </row>
     <row r="68">
@@ -2000,19 +2000,19 @@
         <v>109.6861131059115</v>
       </c>
       <c r="C68" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D68" t="n">
-        <v>116.1786101497083</v>
+        <v>116.1794223856201</v>
       </c>
       <c r="E68" t="n">
-        <v>106.9930725097656</v>
+        <v>108.854850769043</v>
       </c>
       <c r="F68" t="n">
-        <v>106.6253190445767</v>
+        <v>107.5647863770224</v>
       </c>
       <c r="G68" t="n">
-        <v>108.7833400369434</v>
+        <v>108.6298475943661</v>
       </c>
     </row>
     <row r="69">
@@ -2023,19 +2023,19 @@
         <v>109.7391529910376</v>
       </c>
       <c r="C69" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D69" t="n">
-        <v>116.8146890336255</v>
+        <v>116.8155580035029</v>
       </c>
       <c r="E69" t="n">
-        <v>107.1824264526367</v>
+        <v>109.0558319091797</v>
       </c>
       <c r="F69" t="n">
-        <v>106.737291250306</v>
+        <v>107.6834026826084</v>
       </c>
       <c r="G69" t="n">
-        <v>108.7586060739616</v>
+        <v>108.6002600860497</v>
       </c>
     </row>
     <row r="70">
@@ -2046,19 +2046,19 @@
         <v>110.1104267914796</v>
       </c>
       <c r="C70" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D70" t="n">
-        <v>116.2446412353104</v>
+        <v>116.2454932525081</v>
       </c>
       <c r="E70" t="n">
-        <v>107.3732376098633</v>
+        <v>109.2558822631836</v>
       </c>
       <c r="F70" t="n">
-        <v>106.816035848258</v>
+        <v>107.7651487702448</v>
       </c>
       <c r="G70" t="n">
-        <v>108.7489875802658</v>
+        <v>108.4661900954557</v>
       </c>
     </row>
     <row r="71">
@@ -2069,19 +2069,19 @@
         <v>110.4923107271233</v>
       </c>
       <c r="C71" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D71" t="n">
-        <v>116.1655256278617</v>
+        <v>116.1663666521132</v>
       </c>
       <c r="E71" t="n">
-        <v>107.5593185424805</v>
+        <v>109.4492721557617</v>
       </c>
       <c r="F71" t="n">
-        <v>106.9062503070655</v>
+        <v>107.8584177164618</v>
       </c>
       <c r="G71" t="n">
-        <v>108.6537858917233</v>
+        <v>108.4656460468446</v>
       </c>
     </row>
     <row r="72">
@@ -2092,19 +2092,19 @@
         <v>110.2165119571731</v>
       </c>
       <c r="C72" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D72" t="n">
-        <v>116.2978161697437</v>
+        <v>116.2986744107756</v>
       </c>
       <c r="E72" t="n">
-        <v>107.7329864501953</v>
+        <v>109.628288269043</v>
       </c>
       <c r="F72" t="n">
-        <v>106.9962512866538</v>
+        <v>107.9509581222067</v>
       </c>
       <c r="G72" t="n">
-        <v>108.7041940100498</v>
+        <v>108.3127830531351</v>
       </c>
     </row>
     <row r="73">
@@ -2115,19 +2115,19 @@
         <v>111.1500015258789</v>
       </c>
       <c r="C73" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D73" t="n">
-        <v>116.1786276638857</v>
+        <v>116.1794831927916</v>
       </c>
       <c r="E73" t="n">
-        <v>107.8793411254883</v>
+        <v>109.7787780761719</v>
       </c>
       <c r="F73" t="n">
-        <v>107.0656004519064</v>
+        <v>108.0217965742771</v>
       </c>
       <c r="G73" t="n">
-        <v>108.684150096416</v>
+        <v>108.4306522984714</v>
       </c>
     </row>
     <row r="74">
@@ -2135,22 +2135,22 @@
         <v>44961</v>
       </c>
       <c r="B74" t="n">
-        <v>111.1323206649299</v>
+        <v>111.13232066493</v>
       </c>
       <c r="C74" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D74" t="n">
-        <v>117.0719544057173</v>
+        <v>117.072834493799</v>
       </c>
       <c r="E74" t="n">
-        <v>108.003776550293</v>
+        <v>109.9114379882812</v>
       </c>
       <c r="F74" t="n">
-        <v>107.1525647201083</v>
+        <v>108.1143824216033</v>
       </c>
       <c r="G74" t="n">
-        <v>108.7059586331269</v>
+        <v>108.3822423624225</v>
       </c>
     </row>
     <row r="75">
@@ -2161,19 +2161,19 @@
         <v>111.114639803981</v>
       </c>
       <c r="C75" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D75" t="n">
-        <v>117.7076687904114</v>
+        <v>117.7086062900044</v>
       </c>
       <c r="E75" t="n">
-        <v>108.1175842285156</v>
+        <v>110.0386657714844</v>
       </c>
       <c r="F75" t="n">
-        <v>107.2269976735051</v>
+        <v>108.19650398074</v>
       </c>
       <c r="G75" t="n">
-        <v>108.7077820895959</v>
+        <v>108.5256979703474</v>
       </c>
     </row>
     <row r="76">
@@ -2184,19 +2184,19 @@
         <v>111.0969589430321</v>
       </c>
       <c r="C76" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D76" t="n">
-        <v>117.1377944317077</v>
+        <v>117.1387146666707</v>
       </c>
       <c r="E76" t="n">
-        <v>108.2336349487305</v>
+        <v>110.1703186035156</v>
       </c>
       <c r="F76" t="n">
-        <v>107.2686072611947</v>
+        <v>108.2444227441115</v>
       </c>
       <c r="G76" t="n">
-        <v>108.7255177464855</v>
+        <v>108.5792562007486</v>
       </c>
     </row>
     <row r="77">
@@ -2207,19 +2207,19 @@
         <v>110.7362952777919</v>
       </c>
       <c r="C77" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D77" t="n">
-        <v>117.0586415015716</v>
+        <v>117.0595507955629</v>
       </c>
       <c r="E77" t="n">
-        <v>108.3618621826172</v>
+        <v>110.3122177124023</v>
       </c>
       <c r="F77" t="n">
-        <v>107.3300807401713</v>
+        <v>108.3122198316855</v>
       </c>
       <c r="G77" t="n">
-        <v>108.6392054563182</v>
+        <v>108.2381897331875</v>
       </c>
     </row>
     <row r="78">
@@ -2230,19 +2230,19 @@
         <v>110.3650214773499</v>
       </c>
       <c r="C78" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D78" t="n">
-        <v>117.1909336578278</v>
+        <v>117.1918601833096</v>
       </c>
       <c r="E78" t="n">
-        <v>108.4859619140625</v>
+        <v>110.4462432861328</v>
       </c>
       <c r="F78" t="n">
-        <v>107.3954540796573</v>
+        <v>108.3825091574532</v>
       </c>
       <c r="G78" t="n">
-        <v>108.6916169070929</v>
+        <v>108.3801994377856</v>
       </c>
     </row>
     <row r="79">
@@ -2253,19 +2253,19 @@
         <v>110.2695464468581</v>
       </c>
       <c r="C79" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D79" t="n">
-        <v>117.0716834202721</v>
+        <v>117.0726073367176</v>
       </c>
       <c r="E79" t="n">
-        <v>108.595100402832</v>
+        <v>110.563346862793</v>
       </c>
       <c r="F79" t="n">
-        <v>107.4463154842168</v>
+        <v>108.4368319248277</v>
       </c>
       <c r="G79" t="n">
-        <v>108.6045033395934</v>
+        <v>108.357332936557</v>
       </c>
     </row>
     <row r="80">
@@ -2276,19 +2276,19 @@
         <v>109.8346280215295</v>
       </c>
       <c r="C80" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D80" t="n">
-        <v>117.9650210721764</v>
+        <v>117.9659695381906</v>
       </c>
       <c r="E80" t="n">
-        <v>108.6823272705078</v>
+        <v>110.6572952270508</v>
       </c>
       <c r="F80" t="n">
-        <v>107.5147978512846</v>
+        <v>108.5102683209063</v>
       </c>
       <c r="G80" t="n">
-        <v>108.6560702535239</v>
+        <v>108.2160329519931</v>
       </c>
     </row>
     <row r="81">
@@ -2299,19 +2299,19 @@
         <v>109.732084963011</v>
       </c>
       <c r="C81" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D81" t="n">
-        <v>118.6009114346896</v>
+        <v>118.6019169353945</v>
       </c>
       <c r="E81" t="n">
-        <v>108.7374267578125</v>
+        <v>110.7186508178711</v>
       </c>
       <c r="F81" t="n">
-        <v>107.5600685831545</v>
+        <v>108.5598138511379</v>
       </c>
       <c r="G81" t="n">
-        <v>108.597657652305</v>
+        <v>108.3155984422917</v>
       </c>
     </row>
     <row r="82">
@@ -2322,19 +2322,19 @@
         <v>109.6295419044926</v>
       </c>
       <c r="C82" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D82" t="n">
-        <v>118.0309571790582</v>
+        <v>118.031945591186</v>
       </c>
       <c r="E82" t="n">
-        <v>108.7575759887695</v>
+        <v>110.7443618774414</v>
       </c>
       <c r="F82" t="n">
-        <v>107.5540341675995</v>
+        <v>108.5553277118313</v>
       </c>
       <c r="G82" t="n">
-        <v>108.582348015682</v>
+        <v>108.2459347818555</v>
       </c>
     </row>
     <row r="83">
@@ -2345,19 +2345,19 @@
         <v>109.5269988459742</v>
       </c>
       <c r="C83" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D83" t="n">
-        <v>117.9518158792282</v>
+        <v>117.9527933172111</v>
       </c>
       <c r="E83" t="n">
-        <v>108.7442398071289</v>
+        <v>110.7349548339844</v>
       </c>
       <c r="F83" t="n">
-        <v>107.5451802151795</v>
+        <v>108.5482846038054</v>
       </c>
       <c r="G83" t="n">
-        <v>108.6094316611318</v>
+        <v>108.19815632173</v>
       </c>
     </row>
     <row r="84">
@@ -2368,19 +2368,19 @@
         <v>110.0573923017946</v>
       </c>
       <c r="C84" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D84" t="n">
-        <v>118.0841137279922</v>
+        <v>118.0851083936406</v>
       </c>
       <c r="E84" t="n">
-        <v>108.7012176513672</v>
+        <v>110.6934967041016</v>
       </c>
       <c r="F84" t="n">
-        <v>107.5275344583175</v>
+        <v>108.5317706650043</v>
       </c>
       <c r="G84" t="n">
-        <v>108.5310239415693</v>
+        <v>108.335325281633</v>
       </c>
     </row>
     <row r="85">
@@ -2391,19 +2391,19 @@
         <v>105.5490479273207</v>
       </c>
       <c r="C85" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D85" t="n">
-        <v>117.9648891008736</v>
+        <v>117.9658810972548</v>
       </c>
       <c r="E85" t="n">
-        <v>108.6381530761719</v>
+        <v>110.6281356811523</v>
       </c>
       <c r="F85" t="n">
-        <v>107.4928481829305</v>
+        <v>108.4958422809933</v>
       </c>
       <c r="G85" t="n">
-        <v>108.5597034335441</v>
+        <v>108.2771626433063</v>
       </c>
     </row>
     <row r="86">
@@ -2414,19 +2414,19 @@
         <v>102.5364088898163</v>
       </c>
       <c r="C86" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D86" t="n">
-        <v>118.8582263269828</v>
+        <v>118.8592428814805</v>
       </c>
       <c r="E86" t="n">
-        <v>108.3386840820312</v>
+        <v>110.3308334350586</v>
       </c>
       <c r="F86" t="n">
-        <v>107.3692223837154</v>
+        <v>108.3757514427978</v>
       </c>
       <c r="G86" t="n">
-        <v>103.7980585893095</v>
+        <v>103.7397188062073</v>
       </c>
     </row>
     <row r="87">
@@ -2437,19 +2437,19 @@
         <v>101.7514288412873</v>
       </c>
       <c r="C87" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D87" t="n">
-        <v>119.4940226772066</v>
+        <v>119.495096468682</v>
       </c>
       <c r="E87" t="n">
-        <v>107.7797622680664</v>
+        <v>109.7890853881836</v>
       </c>
       <c r="F87" t="n">
-        <v>107.1094596463905</v>
+        <v>108.1269771858484</v>
       </c>
       <c r="G87" t="n">
-        <v>101.7918092018696</v>
+        <v>101.7982377240393</v>
       </c>
     </row>
     <row r="88">
@@ -2460,19 +2460,19 @@
         <v>101.68778151868</v>
       </c>
       <c r="C88" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D88" t="n">
-        <v>118.924113069624</v>
+        <v>118.9251696792818</v>
       </c>
       <c r="E88" t="n">
-        <v>107.0154495239258</v>
+        <v>109.0516586303711</v>
       </c>
       <c r="F88" t="n">
-        <v>106.7137208297167</v>
+        <v>107.7450166528841</v>
       </c>
       <c r="G88" t="n">
-        <v>101.5479289462235</v>
+        <v>101.4114126702858</v>
       </c>
     </row>
     <row r="89">
@@ -2483,19 +2483,19 @@
         <v>101.6241341960728</v>
       </c>
       <c r="C89" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D89" t="n">
-        <v>118.8449622862721</v>
+        <v>118.846007937478</v>
       </c>
       <c r="E89" t="n">
-        <v>106.1453323364258</v>
+        <v>108.2082672119141</v>
       </c>
       <c r="F89" t="n">
-        <v>106.2792341335294</v>
+        <v>107.3254557114685</v>
       </c>
       <c r="G89" t="n">
-        <v>101.4826482673929</v>
+        <v>101.422929556942</v>
       </c>
     </row>
     <row r="90">
@@ -2506,19 +2506,19 @@
         <v>101.5604868734655</v>
       </c>
       <c r="C90" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D90" t="n">
-        <v>118.9772604067492</v>
+        <v>118.9783232898306</v>
       </c>
       <c r="E90" t="n">
-        <v>105.2715759277344</v>
+        <v>107.351692199707</v>
       </c>
       <c r="F90" t="n">
-        <v>105.8488915459372</v>
+        <v>106.9057549829003</v>
       </c>
       <c r="G90" t="n">
-        <v>101.8023471851877</v>
+        <v>101.6162228678062</v>
       </c>
     </row>
     <row r="91">
@@ -2529,19 +2529,19 @@
         <v>101.3695449056436</v>
       </c>
       <c r="C91" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D91" t="n">
-        <v>118.8580199514136</v>
+        <v>118.8590801961329</v>
       </c>
       <c r="E91" t="n">
-        <v>104.4793243408203</v>
+        <v>106.5604019165039</v>
       </c>
       <c r="F91" t="n">
-        <v>105.451961172643</v>
+        <v>106.5107562978355</v>
       </c>
       <c r="G91" t="n">
-        <v>101.7976898777735</v>
+        <v>101.8203835912528</v>
       </c>
     </row>
     <row r="92">
@@ -2552,19 +2552,19 @@
         <v>99.18432645747511</v>
       </c>
       <c r="C92" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D92" t="n">
-        <v>119.751359883244</v>
+        <v>119.7524446831773</v>
       </c>
       <c r="E92" t="n">
-        <v>103.8031921386719</v>
+        <v>105.8622055053711</v>
       </c>
       <c r="F92" t="n">
-        <v>105.1412169193204</v>
+        <v>106.1923661332644</v>
       </c>
       <c r="G92" t="n">
-        <v>101.4378326673988</v>
+        <v>101.3658530626962</v>
       </c>
     </row>
     <row r="93">
@@ -2572,22 +2572,22 @@
         <v>44980</v>
       </c>
       <c r="B93" t="n">
-        <v>99.64046515320717</v>
+        <v>99.6404651532072</v>
       </c>
       <c r="C93" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D93" t="n">
-        <v>120.3872018243091</v>
+        <v>120.3883437499723</v>
       </c>
       <c r="E93" t="n">
-        <v>103.174186706543</v>
+        <v>105.1996688842773</v>
       </c>
       <c r="F93" t="n">
-        <v>104.8466387234319</v>
+        <v>105.8838474605228</v>
       </c>
       <c r="G93" t="n">
-        <v>98.71019819323588</v>
+        <v>98.65150168673668</v>
       </c>
     </row>
     <row r="94">
@@ -2598,19 +2598,19 @@
         <v>100.3936228892928</v>
       </c>
       <c r="C94" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D94" t="n">
-        <v>119.8172714737865</v>
+        <v>119.818396269584</v>
       </c>
       <c r="E94" t="n">
-        <v>102.6088714599609</v>
+        <v>104.5948104858398</v>
       </c>
       <c r="F94" t="n">
-        <v>104.549757202484</v>
+        <v>105.5674571343088</v>
       </c>
       <c r="G94" t="n">
-        <v>99.73242227048434</v>
+        <v>99.78118865189575</v>
       </c>
     </row>
     <row r="95">
@@ -2621,19 +2621,19 @@
         <v>100.5562765586846</v>
       </c>
       <c r="C95" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D95" t="n">
-        <v>119.7381237766175</v>
+        <v>119.739237604209</v>
       </c>
       <c r="E95" t="n">
-        <v>102.1257019042969</v>
+        <v>104.0690841674805</v>
       </c>
       <c r="F95" t="n">
-        <v>104.3074970030848</v>
+        <v>105.3050274808222</v>
       </c>
       <c r="G95" t="n">
-        <v>100.6539071053052</v>
+        <v>100.7291048544704</v>
       </c>
     </row>
     <row r="96">
@@ -2644,19 +2644,19 @@
         <v>100.7189302280764</v>
       </c>
       <c r="C96" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D96" t="n">
-        <v>119.8704232978089</v>
+        <v>119.8715543561067</v>
       </c>
       <c r="E96" t="n">
-        <v>101.7428283691406</v>
+        <v>103.6413421630859</v>
       </c>
       <c r="F96" t="n">
-        <v>104.1210166070223</v>
+        <v>105.0974430359537</v>
       </c>
       <c r="G96" t="n">
-        <v>100.8992154939969</v>
+        <v>100.8923869881041</v>
       </c>
     </row>
     <row r="97">
@@ -2667,19 +2667,19 @@
         <v>100.8815838974682</v>
       </c>
       <c r="C97" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D97" t="n">
-        <v>119.7511895253875</v>
+        <v>119.7523179275669</v>
       </c>
       <c r="E97" t="n">
-        <v>101.473030090332</v>
+        <v>103.3229675292969</v>
       </c>
       <c r="F97" t="n">
-        <v>103.9836307944103</v>
+        <v>104.9363656030993</v>
       </c>
       <c r="G97" t="n">
-        <v>101.0633610743398</v>
+        <v>100.9481257759912</v>
       </c>
     </row>
     <row r="98">
@@ -2690,19 +2690,19 @@
         <v>100.8391514498232</v>
       </c>
       <c r="C98" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D98" t="n">
-        <v>120.6445292915093</v>
+        <v>120.645682251345</v>
       </c>
       <c r="E98" t="n">
-        <v>101.3203964233398</v>
+        <v>103.1168518066406</v>
       </c>
       <c r="F98" t="n">
-        <v>103.9329535225069</v>
+        <v>104.8613760073305</v>
       </c>
       <c r="G98" t="n">
-        <v>101.1487495563978</v>
+        <v>100.9887932905355</v>
       </c>
     </row>
     <row r="99">
@@ -2713,19 +2713,19 @@
         <v>99.41770087294204</v>
       </c>
       <c r="C99" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D99" t="n">
-        <v>121.2803469802343</v>
+        <v>121.2815571251096</v>
       </c>
       <c r="E99" t="n">
-        <v>101.216194152832</v>
+        <v>102.957275390625</v>
       </c>
       <c r="F99" t="n">
-        <v>103.8990863138382</v>
+        <v>104.8016397159049</v>
       </c>
       <c r="G99" t="n">
-        <v>100.712448165344</v>
+        <v>100.7282808623202</v>
       </c>
     </row>
     <row r="100">
@@ -2736,19 +2736,19 @@
         <v>98.60089041880786</v>
       </c>
       <c r="C100" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D100" t="n">
-        <v>120.7104281272463</v>
+        <v>120.7116211148927</v>
       </c>
       <c r="E100" t="n">
-        <v>101.1269454956055</v>
+        <v>102.8146743774414</v>
       </c>
       <c r="F100" t="n">
-        <v>103.8387049029223</v>
+        <v>104.7138988753174</v>
       </c>
       <c r="G100" t="n">
-        <v>98.48134291999507</v>
+        <v>98.39823517355626</v>
       </c>
     </row>
     <row r="101">
@@ -2756,22 +2756,22 @@
         <v>44988</v>
       </c>
       <c r="B101" t="n">
-        <v>97.02562120756811</v>
+        <v>97.02562120756814</v>
       </c>
       <c r="C101" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D101" t="n">
-        <v>120.6312780174306</v>
+        <v>120.6324600415147</v>
       </c>
       <c r="E101" t="n">
-        <v>100.981201171875</v>
+        <v>102.617057800293</v>
       </c>
       <c r="F101" t="n">
-        <v>103.7640738775506</v>
+        <v>104.613761629615</v>
       </c>
       <c r="G101" t="n">
-        <v>96.98126945088281</v>
+        <v>97.03837150374225</v>
       </c>
     </row>
     <row r="102">
@@ -2779,22 +2779,22 @@
         <v>44989</v>
       </c>
       <c r="B102" t="n">
-        <v>97.41988228542019</v>
+        <v>97.41988228542021</v>
       </c>
       <c r="C102" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D102" t="n">
-        <v>120.7635775744596</v>
+        <v>120.7647768304404</v>
       </c>
       <c r="E102" t="n">
-        <v>100.7750625610352</v>
+        <v>102.3682708740234</v>
       </c>
       <c r="F102" t="n">
-        <v>103.6653925547625</v>
+        <v>104.494697235913</v>
       </c>
       <c r="G102" t="n">
-        <v>96.86465394648933</v>
+        <v>96.62820773375626</v>
       </c>
     </row>
     <row r="103">
@@ -2805,19 +2805,19 @@
         <v>97.81414336327227</v>
       </c>
       <c r="C103" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D103" t="n">
-        <v>120.6443397410297</v>
+        <v>120.6455363499838</v>
       </c>
       <c r="E103" t="n">
-        <v>100.5392074584961</v>
+        <v>102.0969619750977</v>
       </c>
       <c r="F103" t="n">
-        <v>103.5448675897474</v>
+        <v>104.3568969634681</v>
       </c>
       <c r="G103" t="n">
-        <v>96.96757275996568</v>
+        <v>96.85434500881615</v>
       </c>
     </row>
     <row r="104">
@@ -2828,19 +2828,19 @@
         <v>98.2084044411243</v>
       </c>
       <c r="C104" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D104" t="n">
-        <v>121.5376801795198</v>
+        <v>121.5389013452691</v>
       </c>
       <c r="E104" t="n">
-        <v>100.3123321533203</v>
+        <v>101.8375625610352</v>
       </c>
       <c r="F104" t="n">
-        <v>103.4573060289098</v>
+        <v>104.2555554592575</v>
       </c>
       <c r="G104" t="n">
-        <v>97.48918338858296</v>
+        <v>97.61879608899491</v>
       </c>
     </row>
     <row r="105">
@@ -2851,19 +2851,19 @@
         <v>98.22961661836592</v>
       </c>
       <c r="C105" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D105" t="n">
-        <v>122.1735096772183</v>
+        <v>122.1747879956756</v>
       </c>
       <c r="E105" t="n">
-        <v>100.1289367675781</v>
+        <v>101.620849609375</v>
       </c>
       <c r="F105" t="n">
-        <v>103.3840981797627</v>
+        <v>104.1675564312638</v>
       </c>
       <c r="G105" t="n">
-        <v>97.99699712077906</v>
+        <v>98.01514654186521</v>
       </c>
     </row>
     <row r="106">
@@ -2874,19 +2874,19 @@
         <v>97.90077526556901</v>
       </c>
       <c r="C106" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D106" t="n">
-        <v>121.6035854410246</v>
+        <v>121.6048466173453</v>
       </c>
       <c r="E106" t="n">
-        <v>99.99018859863281</v>
+        <v>101.4469451904297</v>
       </c>
       <c r="F106" t="n">
-        <v>103.2991270787357</v>
+        <v>104.0643315724409</v>
       </c>
       <c r="G106" t="n">
-        <v>98.11590847311018</v>
+        <v>98.10400958945171</v>
       </c>
     </row>
     <row r="107">
@@ -2897,19 +2897,19 @@
         <v>98.22961661836592</v>
       </c>
       <c r="C107" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D107" t="n">
-        <v>121.5244361478273</v>
+        <v>121.5256863577613</v>
       </c>
       <c r="E107" t="n">
-        <v>99.89419555664062</v>
+        <v>101.315185546875</v>
       </c>
       <c r="F107" t="n">
-        <v>103.2492114999357</v>
+        <v>103.996771865951</v>
       </c>
       <c r="G107" t="n">
-        <v>97.55646962452126</v>
+        <v>97.76690675889637</v>
       </c>
     </row>
     <row r="108">
@@ -2920,19 +2920,19 @@
         <v>95.95953327490727</v>
       </c>
       <c r="C108" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D108" t="n">
-        <v>121.6567360502133</v>
+        <v>121.6580034916937</v>
       </c>
       <c r="E108" t="n">
-        <v>99.83867645263672</v>
+        <v>101.2237091064453</v>
       </c>
       <c r="F108" t="n">
-        <v>103.2253554737346</v>
+        <v>103.9555158627898</v>
       </c>
       <c r="G108" t="n">
-        <v>97.88417698238077</v>
+        <v>98.01358182968046</v>
       </c>
     </row>
     <row r="109">
@@ -2943,19 +2943,19 @@
         <v>95.79687960551549</v>
       </c>
       <c r="C109" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D109" t="n">
-        <v>121.5374999591074</v>
+        <v>121.5387647484073</v>
       </c>
       <c r="E109" t="n">
-        <v>99.72853088378906</v>
+        <v>101.0806274414062</v>
       </c>
       <c r="F109" t="n">
-        <v>103.1672809667014</v>
+        <v>103.8811464289134</v>
       </c>
       <c r="G109" t="n">
-        <v>96.23068091070851</v>
+        <v>96.22563992600197</v>
       </c>
     </row>
     <row r="110">
@@ -2966,19 +2966,19 @@
         <v>95.63422593612367</v>
       </c>
       <c r="C110" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D110" t="n">
-        <v>122.4308403416162</v>
+        <v>122.4321296884017</v>
       </c>
       <c r="E110" t="n">
-        <v>99.541015625</v>
+        <v>100.865364074707</v>
       </c>
       <c r="F110" t="n">
-        <v>103.0992735424715</v>
+        <v>103.8016326207878</v>
       </c>
       <c r="G110" t="n">
-        <v>96.04830238320349</v>
+        <v>95.98192218023753</v>
       </c>
     </row>
     <row r="111">
@@ -2989,19 +2989,19 @@
         <v>95.47157226673187</v>
       </c>
       <c r="C111" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D111" t="n">
-        <v>123.0666635818704</v>
+        <v>123.06801009851</v>
       </c>
       <c r="E111" t="n">
-        <v>99.2874755859375</v>
+        <v>100.5885620117188</v>
       </c>
       <c r="F111" t="n">
-        <v>102.9912182576562</v>
+        <v>103.6839092833397</v>
       </c>
       <c r="G111" t="n">
-        <v>95.80740775219013</v>
+        <v>95.87693974530535</v>
       </c>
     </row>
     <row r="112">
@@ -3012,19 +3012,19 @@
         <v>94.01829128424552</v>
       </c>
       <c r="C112" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D112" t="n">
-        <v>122.496742307392</v>
+        <v>122.4980716739782</v>
       </c>
       <c r="E112" t="n">
-        <v>98.99333953857422</v>
+        <v>100.2736892700195</v>
       </c>
       <c r="F112" t="n">
-        <v>102.8290530261341</v>
+        <v>103.5109594770548</v>
       </c>
       <c r="G112" t="n">
-        <v>95.40497550798501</v>
+        <v>95.45483813645761</v>
       </c>
     </row>
     <row r="113">
@@ -3035,19 +3035,19 @@
         <v>95.8110237547305</v>
       </c>
       <c r="C113" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D113" t="n">
-        <v>122.4175923997037</v>
+        <v>122.4189108012561</v>
       </c>
       <c r="E113" t="n">
-        <v>98.61190032958984</v>
+        <v>99.88523864746094</v>
       </c>
       <c r="F113" t="n">
-        <v>102.6373336885811</v>
+        <v>103.3164275535712</v>
       </c>
       <c r="G113" t="n">
-        <v>95.29442905753137</v>
+        <v>95.37652406764052</v>
       </c>
     </row>
     <row r="114">
@@ -3058,19 +3058,19 @@
         <v>94.9411788109114</v>
       </c>
       <c r="C114" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D114" t="n">
-        <v>122.5498923032264</v>
+        <v>122.5512279366586</v>
       </c>
       <c r="E114" t="n">
-        <v>98.21623229980469</v>
+        <v>99.48674011230469</v>
       </c>
       <c r="F114" t="n">
-        <v>102.4444980176367</v>
+        <v>103.1233122670072</v>
       </c>
       <c r="G114" t="n">
-        <v>95.68486119937548</v>
+        <v>95.65973322709712</v>
       </c>
     </row>
     <row r="115">
@@ -3078,22 +3078,22 @@
         <v>45002</v>
       </c>
       <c r="B115" t="n">
-        <v>95.45035199632839</v>
+        <v>95.45035199632841</v>
       </c>
       <c r="C115" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D115" t="n">
-        <v>122.4306551695778</v>
+        <v>122.4319881534653</v>
       </c>
       <c r="E115" t="n">
-        <v>97.75967407226562</v>
+        <v>99.036865234375</v>
       </c>
       <c r="F115" t="n">
-        <v>102.2143310435118</v>
+        <v>102.8971865151206</v>
       </c>
       <c r="G115" t="n">
-        <v>95.32856928221432</v>
+        <v>95.30468892248108</v>
       </c>
     </row>
     <row r="116">
@@ -3101,22 +3101,22 @@
         <v>45003</v>
       </c>
       <c r="B116" t="n">
-        <v>95.62714981493521</v>
+        <v>95.62714981493524</v>
       </c>
       <c r="C116" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D116" t="n">
-        <v>123.3239957195002</v>
+        <v>123.3253532606214</v>
       </c>
       <c r="E116" t="n">
-        <v>97.28141784667969</v>
+        <v>98.57271575927734</v>
       </c>
       <c r="F116" t="n">
-        <v>102.0018915561236</v>
+        <v>102.6945686165817</v>
       </c>
       <c r="G116" t="n">
-        <v>95.87786194878127</v>
+        <v>95.76846806636493</v>
       </c>
     </row>
     <row r="117">
@@ -3127,19 +3127,19 @@
         <v>95.80394763354204</v>
       </c>
       <c r="C117" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D117" t="n">
-        <v>123.9598220179776</v>
+        <v>123.9612367196722</v>
       </c>
       <c r="E117" t="n">
-        <v>96.84860992431641</v>
+        <v>98.15354156494141</v>
       </c>
       <c r="F117" t="n">
-        <v>101.8047784350338</v>
+        <v>102.5064222449438</v>
       </c>
       <c r="G117" t="n">
-        <v>95.86608706025031</v>
+        <v>95.78241325417726</v>
       </c>
     </row>
     <row r="118">
@@ -3147,22 +3147,22 @@
         <v>45005</v>
       </c>
       <c r="B118" t="n">
-        <v>95.98074545214885</v>
+        <v>95.98074545214888</v>
       </c>
       <c r="C118" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D118" t="n">
-        <v>123.3898993469448</v>
+        <v>123.3912969029166</v>
       </c>
       <c r="E118" t="n">
-        <v>96.52613067626953</v>
+        <v>97.83486938476562</v>
       </c>
       <c r="F118" t="n">
-        <v>101.6285331165913</v>
+        <v>102.3315917508833</v>
       </c>
       <c r="G118" t="n">
-        <v>95.86148449217973</v>
+        <v>95.83962286870812</v>
       </c>
     </row>
     <row r="119">
@@ -3173,19 +3173,19 @@
         <v>96.39445170023588</v>
       </c>
       <c r="C119" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D119" t="n">
-        <v>123.3107496548031</v>
+        <v>123.3121362449332</v>
       </c>
       <c r="E119" t="n">
-        <v>96.35990142822266</v>
+        <v>97.65625</v>
       </c>
       <c r="F119" t="n">
-        <v>101.5437244906724</v>
+        <v>102.2408501170847</v>
       </c>
       <c r="G119" t="n">
-        <v>95.79179518624643</v>
+        <v>95.80711116261189</v>
       </c>
     </row>
     <row r="120">
@@ -3196,19 +3196,19 @@
         <v>97.70983329774718</v>
       </c>
       <c r="C120" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D120" t="n">
-        <v>123.4430496436485</v>
+        <v>123.4444534655549</v>
       </c>
       <c r="E120" t="n">
-        <v>96.35887145996094</v>
+        <v>97.62275695800781</v>
       </c>
       <c r="F120" t="n">
-        <v>101.546937558702</v>
+        <v>102.2282806399777</v>
       </c>
       <c r="G120" t="n">
-        <v>95.80033433465715</v>
+        <v>95.77242793969566</v>
       </c>
     </row>
     <row r="121">
@@ -3219,19 +3219,19 @@
         <v>96.26716245046256</v>
       </c>
       <c r="C121" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D121" t="n">
-        <v>123.3238129638842</v>
+        <v>123.3252141347683</v>
       </c>
       <c r="E121" t="n">
-        <v>96.50051116943359</v>
+        <v>97.71543121337891</v>
       </c>
       <c r="F121" t="n">
-        <v>101.6139431437407</v>
+        <v>102.2705188543835</v>
       </c>
       <c r="G121" t="n">
-        <v>96.43467377122967</v>
+        <v>96.40921718266983</v>
       </c>
     </row>
     <row r="122">
@@ -3242,19 +3242,19 @@
         <v>95.62008178690864</v>
       </c>
       <c r="C122" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D122" t="n">
-        <v>124.2171534962297</v>
+        <v>124.218579224541</v>
       </c>
       <c r="E122" t="n">
-        <v>96.74583435058594</v>
+        <v>97.90614318847656</v>
       </c>
       <c r="F122" t="n">
-        <v>101.7609625791975</v>
+        <v>102.391818344236</v>
       </c>
       <c r="G122" t="n">
-        <v>96.04493608705344</v>
+        <v>96.07074489805203</v>
       </c>
     </row>
     <row r="123">
@@ -3265,19 +3265,19 @@
         <v>95.51753872839021</v>
       </c>
       <c r="C123" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D123" t="n">
-        <v>124.8529781799451</v>
+        <v>124.8544610737311</v>
       </c>
       <c r="E123" t="n">
-        <v>97.01232147216797</v>
+        <v>98.12049865722656</v>
       </c>
       <c r="F123" t="n">
-        <v>101.9112500779354</v>
+        <v>102.5170416749817</v>
       </c>
       <c r="G123" t="n">
-        <v>95.7642848915995</v>
+        <v>95.61949490143273</v>
       </c>
     </row>
     <row r="124">
@@ -3288,19 +3288,19 @@
         <v>95.41499566987179</v>
       </c>
       <c r="C124" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D124" t="n">
-        <v>124.2830562720578</v>
+        <v>124.2845220178564</v>
       </c>
       <c r="E124" t="n">
-        <v>97.25582122802734</v>
+        <v>98.31880187988281</v>
       </c>
       <c r="F124" t="n">
-        <v>102.0161708576356</v>
+        <v>102.597925620392</v>
       </c>
       <c r="G124" t="n">
-        <v>95.64203458121086</v>
+        <v>95.63622510570185</v>
       </c>
     </row>
     <row r="125">
@@ -3311,19 +3311,19 @@
         <v>95.31245261135336</v>
       </c>
       <c r="C125" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D125" t="n">
-        <v>124.203906423239</v>
+        <v>124.2053612035852</v>
       </c>
       <c r="E125" t="n">
-        <v>97.45629119873047</v>
+        <v>98.48165893554688</v>
       </c>
       <c r="F125" t="n">
-        <v>102.1135330952261</v>
+        <v>102.6760911474032</v>
       </c>
       <c r="G125" t="n">
-        <v>95.45245392146754</v>
+        <v>95.51370843815182</v>
       </c>
     </row>
     <row r="126">
@@ -3334,19 +3334,19 @@
         <v>95.39731750664346</v>
       </c>
       <c r="C126" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D126" t="n">
-        <v>124.336206410458</v>
+        <v>124.3376784226732</v>
       </c>
       <c r="E126" t="n">
-        <v>97.6082763671875</v>
+        <v>98.602294921875</v>
       </c>
       <c r="F126" t="n">
-        <v>102.1927616356221</v>
+        <v>102.7397545804062</v>
       </c>
       <c r="G126" t="n">
-        <v>95.31020199287727</v>
+        <v>95.19864606653555</v>
       </c>
     </row>
     <row r="127">
@@ -3357,19 +3357,19 @@
         <v>95.14272282077312</v>
       </c>
       <c r="C127" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D127" t="n">
-        <v>124.2169694629045</v>
+        <v>124.2184388248528</v>
       </c>
       <c r="E127" t="n">
-        <v>97.72120666503906</v>
+        <v>98.69394683837891</v>
       </c>
       <c r="F127" t="n">
-        <v>102.2455078747436</v>
+        <v>102.7814892467126</v>
       </c>
       <c r="G127" t="n">
-        <v>95.66801198693847</v>
+        <v>95.74719075712694</v>
       </c>
     </row>
     <row r="128">
@@ -3377,22 +3377,22 @@
         <v>45015</v>
       </c>
       <c r="B128" t="n">
-        <v>96.85059039596797</v>
+        <v>96.85059039596794</v>
       </c>
       <c r="C128" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D128" t="n">
-        <v>125.1103100370158</v>
+        <v>125.1118039563185</v>
       </c>
       <c r="E128" t="n">
-        <v>97.79426574707031</v>
+        <v>98.7584228515625</v>
       </c>
       <c r="F128" t="n">
-        <v>102.3069483929191</v>
+        <v>102.8403497729798</v>
       </c>
       <c r="G128" t="n">
-        <v>95.63021875294815</v>
+        <v>95.82183897430819</v>
       </c>
     </row>
     <row r="129">
@@ -3403,19 +3403,19 @@
         <v>97.73104547498876</v>
       </c>
       <c r="C129" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D129" t="n">
-        <v>125.7461355126044</v>
+        <v>125.7476865947444</v>
       </c>
       <c r="E129" t="n">
-        <v>97.86188507080078</v>
+        <v>98.82646942138672</v>
       </c>
       <c r="F129" t="n">
-        <v>102.3584390694658</v>
+        <v>102.8932006910248</v>
       </c>
       <c r="G129" t="n">
-        <v>96.22685810746914</v>
+        <v>96.14269882768191</v>
       </c>
     </row>
     <row r="130">
@@ -3426,19 +3426,19 @@
         <v>98.16243258402471</v>
       </c>
       <c r="C130" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D130" t="n">
-        <v>125.1762132425282</v>
+        <v>125.177747177911</v>
       </c>
       <c r="E130" t="n">
-        <v>97.95449066162109</v>
+        <v>98.92527008056641</v>
       </c>
       <c r="F130" t="n">
-        <v>102.3884010377009</v>
+        <v>102.9248674014186</v>
       </c>
       <c r="G130" t="n">
-        <v>97.51923521225889</v>
+        <v>97.52095842506166</v>
       </c>
     </row>
     <row r="131">
@@ -3449,19 +3449,19 @@
         <v>98.59381969306068</v>
       </c>
       <c r="C131" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D131" t="n">
-        <v>125.0970634504796</v>
+        <v>125.098586420181</v>
       </c>
       <c r="E131" t="n">
-        <v>98.08669281005859</v>
+        <v>99.06797027587891</v>
       </c>
       <c r="F131" t="n">
-        <v>102.4518468035008</v>
+        <v>102.9930613114842</v>
       </c>
       <c r="G131" t="n">
-        <v>98.05699514775468</v>
+        <v>98.22453718003531</v>
       </c>
     </row>
     <row r="132">
@@ -3472,19 +3472,19 @@
         <v>99.02520680209662</v>
       </c>
       <c r="C132" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D132" t="n">
-        <v>125.2293634588207</v>
+        <v>125.2309036603611</v>
       </c>
       <c r="E132" t="n">
-        <v>98.26279449462891</v>
+        <v>99.25844573974609</v>
       </c>
       <c r="F132" t="n">
-        <v>102.5430573086027</v>
+        <v>103.0912744582586</v>
       </c>
       <c r="G132" t="n">
-        <v>98.43440786322545</v>
+        <v>98.48015511887364</v>
       </c>
     </row>
     <row r="133">
@@ -3495,19 +3495,19 @@
         <v>98.87669728191982</v>
       </c>
       <c r="C133" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D133" t="n">
-        <v>125.1101266294215</v>
+        <v>125.1116641802755</v>
       </c>
       <c r="E133" t="n">
-        <v>98.48063659667969</v>
+        <v>99.49459075927734</v>
       </c>
       <c r="F133" t="n">
-        <v>102.6479199450932</v>
+        <v>103.2044812960875</v>
       </c>
       <c r="G133" t="n">
-        <v>98.80687308137328</v>
+        <v>98.69992885652074</v>
       </c>
     </row>
     <row r="134">
@@ -3518,19 +3518,19 @@
         <v>98.59028028360613</v>
       </c>
       <c r="C134" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D134" t="n">
-        <v>126.0034671982555</v>
+        <v>126.0050293065176</v>
       </c>
       <c r="E134" t="n">
-        <v>98.73943328857422</v>
+        <v>99.770751953125</v>
       </c>
       <c r="F134" t="n">
-        <v>102.801630360581</v>
+        <v>103.3680438180467</v>
       </c>
       <c r="G134" t="n">
-        <v>98.56251343069943</v>
+        <v>98.58888522681056</v>
       </c>
     </row>
     <row r="135">
@@ -3541,19 +3541,19 @@
         <v>98.47360116903454</v>
       </c>
       <c r="C135" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D135" t="n">
-        <v>126.6392922570873</v>
+        <v>126.6409115295751</v>
       </c>
       <c r="E135" t="n">
-        <v>99.01848602294922</v>
+        <v>100.0676879882812</v>
       </c>
       <c r="F135" t="n">
-        <v>102.9581587146051</v>
+        <v>103.5341149383977</v>
       </c>
       <c r="G135" t="n">
-        <v>98.62216661453346</v>
+        <v>98.63222852138071</v>
       </c>
     </row>
     <row r="136">
@@ -3564,19 +3564,19 @@
         <v>98.6051377101533</v>
       </c>
       <c r="C136" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D136" t="n">
-        <v>126.0693701837032</v>
+        <v>126.070972308792</v>
       </c>
       <c r="E136" t="n">
-        <v>99.29293060302734</v>
+        <v>100.3596954345703</v>
       </c>
       <c r="F136" t="n">
-        <v>103.078452719627</v>
+        <v>103.6613474506077</v>
       </c>
       <c r="G136" t="n">
-        <v>98.62349645653441</v>
+        <v>98.48045671950004</v>
       </c>
     </row>
     <row r="137">
@@ -3587,19 +3587,19 @@
         <v>98.73667425127205</v>
       </c>
       <c r="C137" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D137" t="n">
-        <v>125.990220351666</v>
+        <v>125.9918115111843</v>
       </c>
       <c r="E137" t="n">
-        <v>99.54750061035156</v>
+        <v>100.6319046020508</v>
       </c>
       <c r="F137" t="n">
-        <v>103.2026933146235</v>
+        <v>103.7936015706512</v>
       </c>
       <c r="G137" t="n">
-        <v>98.73829689607575</v>
+        <v>98.64940768715086</v>
       </c>
     </row>
     <row r="138">
@@ -3610,19 +3610,19 @@
         <v>98.86821079239081</v>
       </c>
       <c r="C138" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D138" t="n">
-        <v>126.122520359133</v>
+        <v>126.1241287505159</v>
       </c>
       <c r="E138" t="n">
-        <v>99.77469635009766</v>
+        <v>100.8772964477539</v>
       </c>
       <c r="F138" t="n">
-        <v>103.319283000609</v>
+        <v>103.9189753619312</v>
       </c>
       <c r="G138" t="n">
-        <v>98.73312680721331</v>
+        <v>98.79313900003574</v>
       </c>
     </row>
     <row r="139">
@@ -3633,19 +3633,19 @@
         <v>98.99974733350957</v>
       </c>
       <c r="C139" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D139" t="n">
-        <v>126.0032834609141</v>
+        <v>126.0048892018249</v>
       </c>
       <c r="E139" t="n">
-        <v>99.97261047363281</v>
+        <v>101.0942001342773</v>
       </c>
       <c r="F139" t="n">
-        <v>103.414246495758</v>
+        <v>104.0226645280116</v>
       </c>
       <c r="G139" t="n">
-        <v>98.70266044888666</v>
+        <v>98.698176987024</v>
       </c>
     </row>
     <row r="140">
@@ -3656,19 +3656,19 @@
         <v>99.13128387462832</v>
       </c>
       <c r="C140" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D140" t="n">
-        <v>126.8966240401876</v>
+        <v>126.8982543384857</v>
       </c>
       <c r="E140" t="n">
-        <v>100.1429290771484</v>
+        <v>101.284294128418</v>
       </c>
       <c r="F140" t="n">
-        <v>103.5240039696452</v>
+        <v>104.1436588434981</v>
       </c>
       <c r="G140" t="n">
-        <v>99.42263025716335</v>
+        <v>99.26655673661072</v>
       </c>
     </row>
     <row r="141">
@@ -3679,19 +3679,19 @@
         <v>99.40709073774028</v>
       </c>
       <c r="C141" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D141" t="n">
-        <v>127.5324493040308</v>
+        <v>127.5341367658111</v>
       </c>
       <c r="E141" t="n">
-        <v>100.2893905639648</v>
+        <v>101.4511413574219</v>
       </c>
       <c r="F141" t="n">
-        <v>103.6146639517547</v>
+        <v>104.2453836565384</v>
       </c>
       <c r="G141" t="n">
-        <v>99.41303045888985</v>
+        <v>99.33986696438357</v>
       </c>
     </row>
     <row r="142">
@@ -3702,19 +3702,19 @@
         <v>98.4842032110744</v>
       </c>
       <c r="C142" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D142" t="n">
-        <v>126.9625271367422</v>
+        <v>126.9641974514703</v>
       </c>
       <c r="E142" t="n">
-        <v>100.4145812988281</v>
+        <v>101.5933532714844</v>
       </c>
       <c r="F142" t="n">
-        <v>103.6608116833813</v>
+        <v>104.2985233009341</v>
       </c>
       <c r="G142" t="n">
-        <v>98.79151332101354</v>
+        <v>98.6663294981672</v>
       </c>
     </row>
     <row r="143">
@@ -3725,19 +3725,19 @@
         <v>98.26143893080923</v>
       </c>
       <c r="C143" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D143" t="n">
-        <v>126.8833773196286</v>
+        <v>126.8850366687218</v>
       </c>
       <c r="E143" t="n">
-        <v>100.4983901977539</v>
+        <v>101.6910781860352</v>
       </c>
       <c r="F143" t="n">
-        <v>103.7002172263076</v>
+        <v>104.3444698957913</v>
       </c>
       <c r="G143" t="n">
-        <v>98.03401174480561</v>
+        <v>98.13173032753285</v>
       </c>
     </row>
     <row r="144">
@@ -3748,19 +3748,19 @@
         <v>98.68575531409799</v>
       </c>
       <c r="C144" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D144" t="n">
-        <v>127.015677332335</v>
+        <v>127.0173539132842</v>
       </c>
       <c r="E144" t="n">
-        <v>100.5455474853516</v>
+        <v>101.7539596557617</v>
       </c>
       <c r="F144" t="n">
-        <v>103.727371335048</v>
+        <v>104.3795688764382</v>
       </c>
       <c r="G144" t="n">
-        <v>98.55249013737746</v>
+        <v>98.2615007186423</v>
       </c>
     </row>
     <row r="145">
@@ -3771,19 +3771,19 @@
         <v>99.11007169738674</v>
       </c>
       <c r="C145" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D145" t="n">
-        <v>126.8964404648539</v>
+        <v>126.8981143952128</v>
       </c>
       <c r="E145" t="n">
-        <v>100.5668563842773</v>
+        <v>101.7925338745117</v>
       </c>
       <c r="F145" t="n">
-        <v>103.7346006086501</v>
+        <v>104.3950507985698</v>
       </c>
       <c r="G145" t="n">
-        <v>98.77568449111064</v>
+        <v>98.66155000381633</v>
       </c>
     </row>
     <row r="146">
@@ -3794,19 +3794,19 @@
         <v>99.53438808067547</v>
       </c>
       <c r="C146" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D146" t="n">
-        <v>127.7897810425898</v>
+        <v>127.791479530351</v>
       </c>
       <c r="E146" t="n">
-        <v>100.5742568969727</v>
+        <v>101.8172454833984</v>
       </c>
       <c r="F146" t="n">
-        <v>103.7634216506093</v>
+        <v>104.434238931149</v>
       </c>
       <c r="G146" t="n">
-        <v>99.34549792124508</v>
+        <v>99.15565431792386</v>
       </c>
     </row>
     <row r="147">
@@ -3817,19 +3817,19 @@
         <v>98.62211068921134</v>
       </c>
       <c r="C147" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D147" t="n">
-        <v>128.4256061988573</v>
+        <v>128.427361850491</v>
       </c>
       <c r="E147" t="n">
-        <v>100.5787582397461</v>
+        <v>101.8370132446289</v>
       </c>
       <c r="F147" t="n">
-        <v>103.783559321341</v>
+        <v>104.4632098347039</v>
       </c>
       <c r="G147" t="n">
-        <v>99.41888912613173</v>
+        <v>99.40643338312465</v>
       </c>
     </row>
     <row r="148">
@@ -3840,19 +3840,19 @@
         <v>98.67514517889626</v>
       </c>
       <c r="C148" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D148" t="n">
-        <v>127.8556840822763</v>
+        <v>127.8574225866771</v>
       </c>
       <c r="E148" t="n">
-        <v>100.5756988525391</v>
+        <v>101.8487777709961</v>
       </c>
       <c r="F148" t="n">
-        <v>103.7659939806645</v>
+        <v>104.4518238763767</v>
       </c>
       <c r="G148" t="n">
-        <v>98.7552668004281</v>
+        <v>98.70904890559841</v>
       </c>
     </row>
     <row r="149">
@@ -3860,22 +3860,22 @@
         <v>45036</v>
       </c>
       <c r="B149" t="n">
-        <v>100.4148350665345</v>
+        <v>100.4148350665344</v>
       </c>
       <c r="C149" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D149" t="n">
-        <v>127.7765342549467</v>
+        <v>127.778261793744</v>
       </c>
       <c r="E149" t="n">
-        <v>100.5841445922852</v>
+        <v>101.8691558837891</v>
       </c>
       <c r="F149" t="n">
-        <v>103.7679620843384</v>
+        <v>104.4595166867469</v>
       </c>
       <c r="G149" t="n">
-        <v>98.75704855925625</v>
+        <v>98.76336230373016</v>
       </c>
     </row>
     <row r="150">
@@ -3886,19 +3886,19 @@
         <v>99.67228746565051</v>
       </c>
       <c r="C150" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D150" t="n">
-        <v>127.90883426732</v>
+        <v>127.9105790379803</v>
       </c>
       <c r="E150" t="n">
-        <v>100.607795715332</v>
+        <v>101.903190612793</v>
       </c>
       <c r="F150" t="n">
-        <v>103.7834355900421</v>
+        <v>104.4803448849132</v>
       </c>
       <c r="G150" t="n">
-        <v>100.4675418132992</v>
+        <v>100.438120328407</v>
       </c>
     </row>
     <row r="151">
@@ -3909,19 +3909,19 @@
         <v>99.73239807652391</v>
       </c>
       <c r="C151" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D151" t="n">
-        <v>127.7895973821443</v>
+        <v>127.7913395022748</v>
       </c>
       <c r="E151" t="n">
-        <v>100.6161956787109</v>
+        <v>101.9211044311523</v>
       </c>
       <c r="F151" t="n">
-        <v>103.7842523570426</v>
+        <v>104.4856072325379</v>
       </c>
       <c r="G151" t="n">
-        <v>99.47463313346699</v>
+        <v>99.42226325788471</v>
       </c>
     </row>
     <row r="152">
@@ -3932,19 +3932,19 @@
         <v>99.79250868739726</v>
       </c>
       <c r="C152" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D152" t="n">
-        <v>128.6829379624945</v>
+        <v>128.6847046400213</v>
       </c>
       <c r="E152" t="n">
-        <v>100.6181335449219</v>
+        <v>101.9319076538086</v>
       </c>
       <c r="F152" t="n">
-        <v>103.8103611493195</v>
+        <v>104.5179174660259</v>
       </c>
       <c r="G152" t="n">
-        <v>99.83478652533353</v>
+        <v>99.88346666328128</v>
       </c>
     </row>
     <row r="153">
@@ -3955,19 +3955,19 @@
         <v>99.85261929827062</v>
       </c>
       <c r="C153" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D153" t="n">
-        <v>129.3187631718311</v>
+        <v>129.3205870130223</v>
       </c>
       <c r="E153" t="n">
-        <v>100.636116027832</v>
+        <v>101.9564056396484</v>
       </c>
       <c r="F153" t="n">
-        <v>103.8371936152462</v>
+        <v>104.5492267806003</v>
       </c>
       <c r="G153" t="n">
-        <v>100.1238995043667</v>
+        <v>100.1080758674796</v>
       </c>
     </row>
     <row r="154">
@@ -3978,19 +3978,19 @@
         <v>99.59803270556215</v>
       </c>
       <c r="C154" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D154" t="n">
-        <v>128.7488410309101</v>
+        <v>128.7506477249655</v>
       </c>
       <c r="E154" t="n">
-        <v>100.6928253173828</v>
+        <v>102.0151214599609</v>
       </c>
       <c r="F154" t="n">
-        <v>103.8493218774002</v>
+        <v>104.5610685131917</v>
       </c>
       <c r="G154" t="n">
-        <v>100.2819496615725</v>
+        <v>100.2058602456323</v>
       </c>
     </row>
     <row r="155">
@@ -3998,22 +3998,22 @@
         <v>45042</v>
       </c>
       <c r="B155" t="n">
-        <v>99.34344611285361</v>
+        <v>99.34344611285363</v>
       </c>
       <c r="C155" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D155" t="n">
-        <v>128.6696912074968</v>
+        <v>128.6714869359308</v>
       </c>
       <c r="E155" t="n">
-        <v>100.7725143432617</v>
+        <v>102.0928344726562</v>
       </c>
       <c r="F155" t="n">
-        <v>103.8866827424149</v>
+        <v>104.5971159684549</v>
       </c>
       <c r="G155" t="n">
-        <v>100.1885079748913</v>
+        <v>100.1433367738515</v>
       </c>
     </row>
     <row r="156">
@@ -4024,19 +4024,19 @@
         <v>99.02520680209662</v>
       </c>
       <c r="C156" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D156" t="n">
-        <v>128.8019912211724</v>
+        <v>128.8038041814668</v>
       </c>
       <c r="E156" t="n">
-        <v>100.8460006713867</v>
+        <v>102.1635284423828</v>
       </c>
       <c r="F156" t="n">
-        <v>103.9269136334091</v>
+        <v>104.6360792374612</v>
       </c>
       <c r="G156" t="n">
-        <v>100.0081029028817</v>
+        <v>99.95019025658692</v>
       </c>
     </row>
     <row r="157">
@@ -4044,22 +4044,22 @@
         <v>45044</v>
       </c>
       <c r="B157" t="n">
-        <v>99.2797933948051</v>
+        <v>99.27979339480513</v>
       </c>
       <c r="C157" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D157" t="n">
-        <v>128.6827543439885</v>
+        <v>128.6845646537201</v>
       </c>
       <c r="E157" t="n">
-        <v>100.903190612793</v>
+        <v>102.2168426513672</v>
       </c>
       <c r="F157" t="n">
-        <v>103.9519689870604</v>
+        <v>104.6588510457754</v>
       </c>
       <c r="G157" t="n">
-        <v>98.8091136643262</v>
+        <v>98.76745354522288</v>
       </c>
     </row>
     <row r="158">
@@ -4070,19 +4070,19 @@
         <v>99.40708804001967</v>
       </c>
       <c r="C158" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D158" t="n">
-        <v>129.5760949239003</v>
+        <v>129.5779297910323</v>
       </c>
       <c r="E158" t="n">
-        <v>100.9154663085938</v>
+        <v>102.2269897460938</v>
       </c>
       <c r="F158" t="n">
-        <v>103.9832161765417</v>
+        <v>104.6908370299827</v>
       </c>
       <c r="G158" t="n">
-        <v>98.86766324225616</v>
+        <v>98.80167589597139</v>
       </c>
     </row>
     <row r="159">
@@ -4090,22 +4090,22 @@
         <v>45046</v>
       </c>
       <c r="B159" t="n">
-        <v>99.53438268523422</v>
+        <v>99.53438268523425</v>
       </c>
       <c r="C159" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D159" t="n">
-        <v>130.2119201054655</v>
+        <v>130.2138121363708</v>
       </c>
       <c r="E159" t="n">
-        <v>100.8932571411133</v>
+        <v>102.2068481445312</v>
       </c>
       <c r="F159" t="n">
-        <v>103.9900787015011</v>
+        <v>104.7000668759487</v>
       </c>
       <c r="G159" t="n">
-        <v>99.46348816725173</v>
+        <v>99.3271275404942</v>
       </c>
     </row>
     <row r="160">
@@ -4116,19 +4116,19 @@
         <v>99.66167733044878</v>
       </c>
       <c r="C160" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D160" t="n">
-        <v>129.6419979776199</v>
+        <v>129.643872861339</v>
       </c>
       <c r="E160" t="n">
-        <v>100.8630218505859</v>
+        <v>102.1816177368164</v>
       </c>
       <c r="F160" t="n">
-        <v>103.9590169615818</v>
+        <v>104.6703818144996</v>
       </c>
       <c r="G160" t="n">
-        <v>100.0146198359923</v>
+        <v>100.0328573784191</v>
       </c>
     </row>
     <row r="161">
@@ -4139,19 +4139,19 @@
         <v>100.0329511308908</v>
       </c>
       <c r="C161" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D161" t="n">
-        <v>129.5628481515944</v>
+        <v>129.5647120697009</v>
       </c>
       <c r="E161" t="n">
-        <v>100.8525543212891</v>
+        <v>102.1769790649414</v>
       </c>
       <c r="F161" t="n">
-        <v>103.9515894659272</v>
+        <v>104.6656997469792</v>
       </c>
       <c r="G161" t="n">
-        <v>100.0950677516163</v>
+        <v>100.081253114598</v>
       </c>
     </row>
     <row r="162">
@@ -4162,19 +4162,19 @@
         <v>97.84773268272222</v>
       </c>
       <c r="C162" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D162" t="n">
-        <v>129.6951481651585</v>
+        <v>129.6970293151274</v>
       </c>
       <c r="E162" t="n">
-        <v>100.8589630126953</v>
+        <v>102.1859817504883</v>
       </c>
       <c r="F162" t="n">
-        <v>103.9584951616058</v>
+        <v>104.6741454378572</v>
       </c>
       <c r="G162" t="n">
-        <v>100.2002794414697</v>
+        <v>100.0538099383971</v>
       </c>
     </row>
     <row r="163">
@@ -4185,19 +4185,19 @@
         <v>96.09743265988232</v>
       </c>
       <c r="C163" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D163" t="n">
-        <v>129.5759112834232</v>
+        <v>129.5777897828461</v>
       </c>
       <c r="E163" t="n">
-        <v>100.8351364135742</v>
+        <v>102.1640090942383</v>
       </c>
       <c r="F163" t="n">
-        <v>103.9433016442793</v>
+        <v>104.6596781713275</v>
       </c>
       <c r="G163" t="n">
-        <v>97.76462066660433</v>
+        <v>97.92189319202075</v>
       </c>
     </row>
     <row r="164">
@@ -4208,19 +4208,19 @@
         <v>95.29124043411176</v>
       </c>
       <c r="C164" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D164" t="n">
-        <v>130.4692518639908</v>
+        <v>130.4711549208125</v>
       </c>
       <c r="E164" t="n">
-        <v>100.6974411010742</v>
+        <v>102.0316925048828</v>
       </c>
       <c r="F164" t="n">
-        <v>103.9000439814842</v>
+        <v>104.6211952529667</v>
       </c>
       <c r="G164" t="n">
-        <v>96.34106446143063</v>
+        <v>96.3181503038042</v>
       </c>
     </row>
     <row r="165">
@@ -4231,19 +4231,19 @@
         <v>95.66605094628763</v>
       </c>
       <c r="C165" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D165" t="n">
-        <v>131.1050770592917</v>
+        <v>131.1070372798288</v>
       </c>
       <c r="E165" t="n">
-        <v>100.4360809326172</v>
+        <v>101.781852722168</v>
       </c>
       <c r="F165" t="n">
-        <v>103.7881053898869</v>
+        <v>104.5168119706833</v>
       </c>
       <c r="G165" t="n">
-        <v>96.11819499361764</v>
+        <v>95.88000469502444</v>
       </c>
     </row>
     <row r="166">
@@ -4254,19 +4254,19 @@
         <v>96.0408614584635</v>
       </c>
       <c r="C166" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D166" t="n">
-        <v>130.5351549251387</v>
+        <v>130.5370979985165</v>
       </c>
       <c r="E166" t="n">
-        <v>100.089958190918</v>
+        <v>101.4498443603516</v>
       </c>
       <c r="F166" t="n">
-        <v>103.6001146336767</v>
+        <v>104.3353820665154</v>
       </c>
       <c r="G166" t="n">
-        <v>96.11085103711154</v>
+        <v>96.05579587825443</v>
       </c>
     </row>
     <row r="167">
@@ -4277,19 +4277,19 @@
         <v>96.41567197063935</v>
       </c>
       <c r="C167" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D167" t="n">
-        <v>130.4560051001395</v>
+        <v>130.4579372078997</v>
       </c>
       <c r="E167" t="n">
-        <v>99.71356201171875</v>
+        <v>101.0846481323242</v>
       </c>
       <c r="F167" t="n">
-        <v>103.410901554555</v>
+        <v>104.1523552724633</v>
       </c>
       <c r="G167" t="n">
-        <v>96.13629793364606</v>
+        <v>96.0734296931995</v>
       </c>
     </row>
     <row r="168">
@@ -4300,19 +4300,19 @@
         <v>96.67025856334784</v>
       </c>
       <c r="C168" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D168" t="n">
-        <v>130.5883051140279</v>
+        <v>130.5902544536498</v>
       </c>
       <c r="E168" t="n">
-        <v>99.35887145996094</v>
+        <v>100.7335891723633</v>
       </c>
       <c r="F168" t="n">
-        <v>103.2384211113267</v>
+        <v>103.9827003774136</v>
       </c>
       <c r="G168" t="n">
-        <v>96.10158448362671</v>
+        <v>95.88772499000999</v>
       </c>
     </row>
     <row r="169">
@@ -4323,19 +4323,19 @@
         <v>96.74451332343624</v>
       </c>
       <c r="C169" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D169" t="n">
-        <v>130.4690682343693</v>
+        <v>130.4710149234361</v>
       </c>
       <c r="E169" t="n">
-        <v>99.04724884033203</v>
+        <v>100.418212890625</v>
       </c>
       <c r="F169" t="n">
-        <v>103.0802565552403</v>
+        <v>103.8231067681728</v>
       </c>
       <c r="G169" t="n">
-        <v>96.09719314274629</v>
+        <v>96.02648398804484</v>
       </c>
     </row>
     <row r="170">
@@ -4346,19 +4346,19 @@
         <v>97.81591037027889</v>
       </c>
       <c r="C170" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D170" t="n">
-        <v>131.3624088148139</v>
+        <v>131.3643800612807</v>
       </c>
       <c r="E170" t="n">
-        <v>98.79994964599609</v>
+        <v>100.1617279052734</v>
       </c>
       <c r="F170" t="n">
-        <v>102.9825479036721</v>
+        <v>103.7232072238318</v>
       </c>
       <c r="G170" t="n">
-        <v>96.09894899486017</v>
+        <v>96.09797510271994</v>
       </c>
     </row>
     <row r="171">
@@ -4369,19 +4369,19 @@
         <v>98.15536185827752</v>
       </c>
       <c r="C171" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D171" t="n">
-        <v>131.9982340029447</v>
+        <v>132.0002624131571</v>
       </c>
       <c r="E171" t="n">
-        <v>98.65119934082031</v>
+        <v>99.99460601806641</v>
       </c>
       <c r="F171" t="n">
-        <v>102.9265518472734</v>
+        <v>103.6597365695068</v>
       </c>
       <c r="G171" t="n">
-        <v>97.51684088113419</v>
+        <v>97.69540789649908</v>
       </c>
     </row>
     <row r="172">
@@ -4392,19 +4392,19 @@
         <v>98.00331562636683</v>
       </c>
       <c r="C172" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D172" t="n">
-        <v>131.4283118721639</v>
+        <v>131.4303231352031</v>
       </c>
       <c r="E172" t="n">
-        <v>98.61280059814453</v>
+        <v>99.93022918701172</v>
       </c>
       <c r="F172" t="n">
-        <v>102.8914312693808</v>
+        <v>103.6106881046492</v>
       </c>
       <c r="G172" t="n">
-        <v>98.16024066581438</v>
+        <v>98.20779983682132</v>
       </c>
     </row>
     <row r="173">
@@ -4415,19 +4415,19 @@
         <v>97.85126939445612</v>
       </c>
       <c r="C173" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D173" t="n">
-        <v>131.3491620464962</v>
+        <v>131.3511623439202</v>
       </c>
       <c r="E173" t="n">
-        <v>98.67155456542969</v>
+        <v>99.95871734619141</v>
       </c>
       <c r="F173" t="n">
-        <v>102.9183932695859</v>
+        <v>103.6223901618954</v>
       </c>
       <c r="G173" t="n">
-        <v>97.98370976582598</v>
+        <v>97.98139187362662</v>
       </c>
     </row>
     <row r="174">
@@ -4438,19 +4438,19 @@
         <v>97.69922316254545</v>
       </c>
       <c r="C174" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D174" t="n">
-        <v>131.4814620603499</v>
+        <v>131.4834795896361</v>
       </c>
       <c r="E174" t="n">
-        <v>98.80369567871094</v>
+        <v>100.0593032836914</v>
       </c>
       <c r="F174" t="n">
-        <v>102.9877608183</v>
+        <v>103.6761391975087</v>
       </c>
       <c r="G174" t="n">
-        <v>98.00871551418005</v>
+        <v>97.9172549610054</v>
       </c>
     </row>
     <row r="175">
@@ -4461,19 +4461,19 @@
         <v>97.90077526556901</v>
       </c>
       <c r="C175" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D175" t="n">
-        <v>131.36222517952</v>
+        <v>131.3642400582558</v>
       </c>
       <c r="E175" t="n">
-        <v>98.98275756835938</v>
+        <v>100.2082748413086</v>
       </c>
       <c r="F175" t="n">
-        <v>103.0733592321514</v>
+        <v>103.7462246958987</v>
       </c>
       <c r="G175" t="n">
-        <v>97.85514244369486</v>
+        <v>97.69573014792668</v>
       </c>
     </row>
     <row r="176">
@@ -4481,22 +4481,22 @@
         <v>45063</v>
       </c>
       <c r="B176" t="n">
-        <v>96.16108537793083</v>
+        <v>96.16108537793085</v>
       </c>
       <c r="C176" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D176" t="n">
-        <v>132.2555657601295</v>
+        <v>132.2576051962647</v>
       </c>
       <c r="E176" t="n">
-        <v>99.15034484863281</v>
+        <v>100.3493499755859</v>
       </c>
       <c r="F176" t="n">
-        <v>103.1817624885469</v>
+        <v>103.8429727956056</v>
       </c>
       <c r="G176" t="n">
-        <v>96.72700515615219</v>
+        <v>96.95827163112308</v>
       </c>
     </row>
     <row r="177">
@@ -4507,19 +4507,19 @@
         <v>97.3491615393451</v>
       </c>
       <c r="C177" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D177" t="n">
-        <v>132.891390951815</v>
+        <v>132.8934875516799</v>
       </c>
       <c r="E177" t="n">
-        <v>99.25999450683594</v>
+        <v>100.4416809082031</v>
       </c>
       <c r="F177" t="n">
-        <v>103.2541309952365</v>
+        <v>103.9078361867976</v>
       </c>
       <c r="G177" t="n">
-        <v>96.5086827706816</v>
+        <v>96.35983926689774</v>
       </c>
     </row>
     <row r="178">
@@ -4530,19 +4530,19 @@
         <v>98.88730741712156</v>
       </c>
       <c r="C178" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D178" t="n">
-        <v>132.3214688194001</v>
+        <v>132.3235482720992</v>
       </c>
       <c r="E178" t="n">
-        <v>99.32763671875</v>
+        <v>100.4993362426758</v>
       </c>
       <c r="F178" t="n">
-        <v>103.2716913865362</v>
+        <v>103.9191514914222</v>
       </c>
       <c r="G178" t="n">
-        <v>96.95590647104831</v>
+        <v>96.89170492743591</v>
       </c>
     </row>
     <row r="179">
@@ -4550,22 +4550,22 @@
         <v>45066</v>
       </c>
       <c r="B179" t="n">
-        <v>98.86255583042545</v>
+        <v>98.86255583042542</v>
       </c>
       <c r="C179" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D179" t="n">
-        <v>132.242318994001</v>
+        <v>132.2443874810835</v>
       </c>
       <c r="E179" t="n">
-        <v>99.375</v>
+        <v>100.5457000732422</v>
       </c>
       <c r="F179" t="n">
-        <v>103.2929923760067</v>
+        <v>103.9396960169381</v>
       </c>
       <c r="G179" t="n">
-        <v>99.2176938597398</v>
+        <v>99.05341233006888</v>
       </c>
     </row>
     <row r="180">
@@ -4576,19 +4576,19 @@
         <v>98.83780424372929</v>
       </c>
       <c r="C180" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D180" t="n">
-        <v>132.3746190079356</v>
+        <v>132.3767047268801</v>
       </c>
       <c r="E180" t="n">
-        <v>99.4241943359375</v>
+        <v>100.6013717651367</v>
       </c>
       <c r="F180" t="n">
-        <v>103.321157379557</v>
+        <v>103.9712244409816</v>
       </c>
       <c r="G180" t="n">
-        <v>98.67197756506036</v>
+        <v>98.56605403467681</v>
       </c>
     </row>
     <row r="181">
@@ -4596,22 +4596,22 @@
         <v>45068</v>
       </c>
       <c r="B181" t="n">
-        <v>98.81305265703314</v>
+        <v>98.81305265703317</v>
       </c>
       <c r="C181" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D181" t="n">
-        <v>132.2553821276451</v>
+        <v>132.2574651960367</v>
       </c>
       <c r="E181" t="n">
-        <v>99.49452972412109</v>
+        <v>100.6804504394531</v>
       </c>
       <c r="F181" t="n">
-        <v>103.3527396801423</v>
+        <v>104.0067411527668</v>
       </c>
       <c r="G181" t="n">
-        <v>98.47603904344072</v>
+        <v>98.40919569033944</v>
       </c>
     </row>
     <row r="182">
@@ -4622,19 +4622,19 @@
         <v>98.95095204200821</v>
       </c>
       <c r="C182" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D182" t="n">
-        <v>133.1487227082205</v>
+        <v>133.1508303340119</v>
       </c>
       <c r="E182" t="n">
-        <v>99.59831237792969</v>
+        <v>100.7897415161133</v>
       </c>
       <c r="F182" t="n">
-        <v>103.4294466169568</v>
+        <v>104.087768885041</v>
       </c>
       <c r="G182" t="n">
-        <v>98.34353094067664</v>
+        <v>98.30752212235714</v>
       </c>
     </row>
     <row r="183">
@@ -4645,19 +4645,19 @@
         <v>99.003994624855</v>
       </c>
       <c r="C183" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D183" t="n">
-        <v>133.7845478980546</v>
+        <v>133.786712687584</v>
       </c>
       <c r="E183" t="n">
-        <v>99.70175933837891</v>
+        <v>100.8994827270508</v>
       </c>
       <c r="F183" t="n">
-        <v>103.4987366629009</v>
+        <v>104.1612420479058</v>
       </c>
       <c r="G183" t="n">
-        <v>98.84848704245344</v>
+        <v>98.61020014199958</v>
       </c>
     </row>
     <row r="184">
@@ -4668,19 +4668,19 @@
         <v>98.67514517889626</v>
       </c>
       <c r="C184" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D184" t="n">
-        <v>133.2146257665097</v>
+        <v>133.2167734088694</v>
       </c>
       <c r="E184" t="n">
-        <v>99.81643676757812</v>
+        <v>101.0236434936523</v>
       </c>
       <c r="F184" t="n">
-        <v>103.539662074977</v>
+        <v>104.2054553017753</v>
       </c>
       <c r="G184" t="n">
-        <v>99.83427399221415</v>
+        <v>99.63010744022975</v>
       </c>
     </row>
     <row r="185">
@@ -4691,19 +4691,19 @@
         <v>97.62496840245706</v>
       </c>
       <c r="C185" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D185" t="n">
-        <v>133.1354759409393</v>
+        <v>133.1376126176831</v>
       </c>
       <c r="E185" t="n">
-        <v>99.89768981933594</v>
+        <v>101.1125030517578</v>
       </c>
       <c r="F185" t="n">
-        <v>103.5777973234759</v>
+        <v>104.2470188092197</v>
       </c>
       <c r="G185" t="n">
-        <v>97.10192724716626</v>
+        <v>97.21956248587844</v>
       </c>
     </row>
     <row r="186">
@@ -4714,19 +4714,19 @@
         <v>97.9821007514046</v>
       </c>
       <c r="C186" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D186" t="n">
-        <v>133.2677759548635</v>
+        <v>133.2699298634695</v>
       </c>
       <c r="E186" t="n">
-        <v>99.94081878662109</v>
+        <v>101.1653747558594</v>
       </c>
       <c r="F186" t="n">
-        <v>103.6029487161861</v>
+        <v>104.2771624981555</v>
       </c>
       <c r="G186" t="n">
-        <v>97.26428982123315</v>
+        <v>97.41963615706335</v>
       </c>
     </row>
     <row r="187">
@@ -4734,22 +4734,22 @@
         <v>45074</v>
       </c>
       <c r="B187" t="n">
-        <v>98.33923310035215</v>
+        <v>98.33923310035216</v>
       </c>
       <c r="C187" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D187" t="n">
-        <v>133.1485390742716</v>
+        <v>133.1506903323258</v>
       </c>
       <c r="E187" t="n">
-        <v>99.96229553222656</v>
+        <v>101.1972961425781</v>
       </c>
       <c r="F187" t="n">
-        <v>103.610261912759</v>
+        <v>104.2893523361522</v>
       </c>
       <c r="G187" t="n">
-        <v>98.1119514018455</v>
+        <v>98.12535908203247</v>
       </c>
     </row>
     <row r="188">
@@ -4760,19 +4760,19 @@
         <v>98.69636544929971</v>
       </c>
       <c r="C188" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D188" t="n">
-        <v>134.0418796548885</v>
+        <v>134.0440554703423</v>
       </c>
       <c r="E188" t="n">
-        <v>99.983642578125</v>
+        <v>101.2276077270508</v>
       </c>
       <c r="F188" t="n">
-        <v>103.6460142597309</v>
+        <v>104.3313137537304</v>
       </c>
       <c r="G188" t="n">
-        <v>98.51925903631142</v>
+        <v>98.54247367702671</v>
       </c>
     </row>
     <row r="189">
@@ -4783,19 +4783,19 @@
         <v>98.7069674913396</v>
       </c>
       <c r="C189" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D189" t="n">
-        <v>134.6777048456424</v>
+        <v>134.6799378248299</v>
       </c>
       <c r="E189" t="n">
-        <v>100.0246200561523</v>
+        <v>101.2744522094727</v>
       </c>
       <c r="F189" t="n">
-        <v>103.6842679287478</v>
+        <v>104.3736780604217</v>
       </c>
       <c r="G189" t="n">
-        <v>99.07456787767983</v>
+        <v>99.13023140512124</v>
       </c>
     </row>
     <row r="190">
@@ -4806,19 +4806,19 @@
         <v>97.96441989045569</v>
       </c>
       <c r="C190" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D190" t="n">
-        <v>134.1077827136742</v>
+        <v>134.1099985456941</v>
       </c>
       <c r="E190" t="n">
-        <v>100.0817947387695</v>
+        <v>101.333984375</v>
       </c>
       <c r="F190" t="n">
-        <v>103.696628887687</v>
+        <v>104.3859203364953</v>
       </c>
       <c r="G190" t="n">
-        <v>98.56911194329692</v>
+        <v>98.71048805943157</v>
       </c>
     </row>
     <row r="191">
@@ -4826,22 +4826,22 @@
         <v>45078</v>
       </c>
       <c r="B191" t="n">
-        <v>96.50053686592948</v>
+        <v>96.50053686592946</v>
       </c>
       <c r="C191" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D191" t="n">
-        <v>134.0286328881741</v>
+        <v>134.0308377545777</v>
       </c>
       <c r="E191" t="n">
-        <v>99.90341949462891</v>
+        <v>101.167839050293</v>
       </c>
       <c r="F191" t="n">
-        <v>103.6057854069398</v>
+        <v>104.3013508788539</v>
       </c>
       <c r="G191" t="n">
-        <v>96.61613291558844</v>
+        <v>96.71463671816083</v>
       </c>
     </row>
     <row r="192">
@@ -4852,19 +4852,19 @@
         <v>96.46870646032428</v>
       </c>
       <c r="C192" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D192" t="n">
-        <v>134.1609329021185</v>
+        <v>134.1631550003842</v>
       </c>
       <c r="E192" t="n">
-        <v>99.62361145019531</v>
+        <v>100.915168762207</v>
       </c>
       <c r="F192" t="n">
-        <v>103.4705058914475</v>
+        <v>104.1803638915208</v>
       </c>
       <c r="G192" t="n">
-        <v>96.37153452364281</v>
+        <v>96.24544939417076</v>
       </c>
     </row>
     <row r="193">
@@ -4875,19 +4875,19 @@
         <v>96.61721867822169</v>
       </c>
       <c r="C193" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D193" t="n">
-        <v>134.0416960216666</v>
+        <v>134.0439154693799</v>
       </c>
       <c r="E193" t="n">
-        <v>99.32316589355469</v>
+        <v>100.6394348144531</v>
       </c>
       <c r="F193" t="n">
-        <v>103.3178955345575</v>
+        <v>104.0403778262014</v>
       </c>
       <c r="G193" t="n">
-        <v>96.12976340265107</v>
+        <v>96.19843128793511</v>
       </c>
     </row>
     <row r="194">
@@ -4895,22 +4895,22 @@
         <v>45081</v>
       </c>
       <c r="B194" t="n">
-        <v>96.76573089611909</v>
+        <v>96.76573089611908</v>
       </c>
       <c r="C194" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D194" t="n">
-        <v>134.9350366022741</v>
+        <v>134.9372806073871</v>
       </c>
       <c r="E194" t="n">
-        <v>99.05340576171875</v>
+        <v>100.3836288452148</v>
       </c>
       <c r="F194" t="n">
-        <v>103.2090327081893</v>
+        <v>103.9408139752247</v>
       </c>
       <c r="G194" t="n">
-        <v>96.28388696586588</v>
+        <v>96.22636449480439</v>
       </c>
     </row>
     <row r="195">
@@ -4921,19 +4921,19 @@
         <v>96.91424311401649</v>
       </c>
       <c r="C195" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D195" t="n">
-        <v>135.5708617925499</v>
+        <v>135.5731629613989</v>
       </c>
       <c r="E195" t="n">
-        <v>98.84365081787109</v>
+        <v>100.1742477416992</v>
       </c>
       <c r="F195" t="n">
-        <v>103.1227288820756</v>
+        <v>103.8564387799485</v>
       </c>
       <c r="G195" t="n">
-        <v>96.22935943502243</v>
+        <v>96.00354643886151</v>
       </c>
     </row>
     <row r="196">
@@ -4944,19 +4944,19 @@
         <v>96.0443981701974</v>
       </c>
       <c r="C196" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D196" t="n">
-        <v>135.0009396608062</v>
+        <v>135.0032236824865</v>
       </c>
       <c r="E196" t="n">
-        <v>98.70720672607422</v>
+        <v>100.0252075195312</v>
       </c>
       <c r="F196" t="n">
-        <v>103.0389022494684</v>
+        <v>103.7655163831772</v>
       </c>
       <c r="G196" t="n">
-        <v>96.25457660308946</v>
+        <v>95.95112708238341</v>
       </c>
     </row>
     <row r="197">
@@ -4967,19 +4967,19 @@
         <v>95.84284606717384</v>
       </c>
       <c r="C197" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D197" t="n">
-        <v>134.9217898352622</v>
+        <v>134.9240628913263</v>
       </c>
       <c r="E197" t="n">
-        <v>98.62046813964844</v>
+        <v>99.91578674316406</v>
       </c>
       <c r="F197" t="n">
-        <v>102.9935833658879</v>
+        <v>103.7090002092259</v>
       </c>
       <c r="G197" t="n">
-        <v>95.99397238722933</v>
+        <v>95.82603978500856</v>
       </c>
     </row>
     <row r="198">
@@ -4990,19 +4990,19 @@
         <v>94.7608469782913</v>
       </c>
       <c r="C198" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D198" t="n">
-        <v>135.0540898492036</v>
+        <v>135.0563801371299</v>
       </c>
       <c r="E198" t="n">
-        <v>98.55173492431641</v>
+        <v>99.81630706787109</v>
       </c>
       <c r="F198" t="n">
-        <v>102.963162248833</v>
+        <v>103.6637883683771</v>
       </c>
       <c r="G198" t="n">
-        <v>95.91566688138136</v>
+        <v>95.80871792828412</v>
       </c>
     </row>
     <row r="199">
@@ -5010,22 +5010,22 @@
         <v>45086</v>
       </c>
       <c r="B199" t="n">
-        <v>94.90935649846809</v>
+        <v>94.90935649846806</v>
       </c>
       <c r="C199" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D199" t="n">
-        <v>134.934852968674</v>
+        <v>134.9371406060483</v>
       </c>
       <c r="E199" t="n">
-        <v>98.4698486328125</v>
+        <v>99.70350646972656</v>
       </c>
       <c r="F199" t="n">
-        <v>102.919125805515</v>
+        <v>103.6043954121862</v>
       </c>
       <c r="G199" t="n">
-        <v>95.21696674691476</v>
+        <v>95.39866254060939</v>
       </c>
     </row>
     <row r="200">
@@ -5033,22 +5033,22 @@
         <v>45087</v>
       </c>
       <c r="B200" t="n">
-        <v>95.03664979482234</v>
+        <v>95.03664979482231</v>
       </c>
       <c r="C200" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D200" t="n">
-        <v>135.828193549292</v>
+        <v>135.830505744066</v>
       </c>
       <c r="E200" t="n">
-        <v>98.38359832763672</v>
+        <v>99.58777618408203</v>
       </c>
       <c r="F200" t="n">
-        <v>102.901426614401</v>
+        <v>103.5741179076453</v>
       </c>
       <c r="G200" t="n">
-        <v>95.47078194223407</v>
+        <v>95.5955886995103</v>
       </c>
     </row>
     <row r="201">
@@ -5059,19 +5059,19 @@
         <v>95.16394309117658</v>
       </c>
       <c r="C201" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D201" t="n">
-        <v>136.4640187398059</v>
+        <v>136.4663880983146</v>
       </c>
       <c r="E201" t="n">
-        <v>98.29921722412109</v>
+        <v>99.47547912597656</v>
       </c>
       <c r="F201" t="n">
-        <v>102.8774053505499</v>
+        <v>103.537762121556</v>
       </c>
       <c r="G201" t="n">
-        <v>95.59177586594274</v>
+        <v>95.55136187387082</v>
       </c>
     </row>
     <row r="202">
@@ -5082,19 +5082,19 @@
         <v>95.29123638753083</v>
       </c>
       <c r="C202" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D202" t="n">
-        <v>135.8940966079525</v>
+        <v>135.896448819293</v>
       </c>
       <c r="E202" t="n">
-        <v>98.22052764892578</v>
+        <v>99.37139129638672</v>
       </c>
       <c r="F202" t="n">
-        <v>102.8222690560743</v>
+        <v>103.4690755951428</v>
       </c>
       <c r="G202" t="n">
-        <v>95.7544285359575</v>
+        <v>95.78368417101603</v>
       </c>
     </row>
     <row r="203">
@@ -5105,19 +5105,19 @@
         <v>95.41852968388508</v>
       </c>
       <c r="C203" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D203" t="n">
-        <v>135.8149467824268</v>
+        <v>135.8172880281511</v>
       </c>
       <c r="E203" t="n">
-        <v>98.14993286132812</v>
+        <v>99.27912902832031</v>
       </c>
       <c r="F203" t="n">
-        <v>102.784972480844</v>
+        <v>103.4210509373053</v>
       </c>
       <c r="G203" t="n">
-        <v>95.60749049283763</v>
+        <v>95.76859571122529</v>
       </c>
     </row>
     <row r="204">
@@ -5125,22 +5125,22 @@
         <v>45091</v>
       </c>
       <c r="B204" t="n">
-        <v>96.42628210584105</v>
+        <v>96.42628210584108</v>
       </c>
       <c r="C204" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D204" t="n">
-        <v>135.9472467963732</v>
+        <v>135.9496052739597</v>
       </c>
       <c r="E204" t="n">
-        <v>98.0889892578125</v>
+        <v>99.20130920410156</v>
       </c>
       <c r="F204" t="n">
-        <v>102.7584194668165</v>
+        <v>103.3865507663785</v>
       </c>
       <c r="G204" t="n">
-        <v>95.58045549379547</v>
+        <v>95.73230237492078</v>
       </c>
     </row>
     <row r="205">
@@ -5151,19 +5151,19 @@
         <v>97.16882970672499</v>
       </c>
       <c r="C205" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D205" t="n">
-        <v>135.82800991588</v>
+        <v>135.8303657429143</v>
       </c>
       <c r="E205" t="n">
-        <v>98.0377197265625</v>
+        <v>99.13858795166016</v>
       </c>
       <c r="F205" t="n">
-        <v>102.7295960361949</v>
+        <v>103.3519266395344</v>
       </c>
       <c r="G205" t="n">
-        <v>95.98433940447221</v>
+        <v>95.91990323651117</v>
       </c>
     </row>
     <row r="206">
@@ -5174,19 +5174,19 @@
         <v>98.33569369089763</v>
       </c>
       <c r="C206" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D206" t="n">
-        <v>136.7213504964955</v>
+        <v>136.7237308809294</v>
       </c>
       <c r="E206" t="n">
-        <v>98.0142822265625</v>
+        <v>99.10938262939453</v>
       </c>
       <c r="F206" t="n">
-        <v>102.7430972540164</v>
+        <v>103.3644462236165</v>
       </c>
       <c r="G206" t="n">
-        <v>96.47539046744581</v>
+        <v>96.41180204025862</v>
       </c>
     </row>
     <row r="207">
@@ -5197,19 +5197,19 @@
         <v>98.85547970923697</v>
       </c>
       <c r="C207" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D207" t="n">
-        <v>137.3571756868859</v>
+        <v>137.3596132350551</v>
       </c>
       <c r="E207" t="n">
-        <v>97.96617889404297</v>
+        <v>99.06819915771484</v>
       </c>
       <c r="F207" t="n">
-        <v>102.7371004347418</v>
+        <v>103.3632695757071</v>
       </c>
       <c r="G207" t="n">
-        <v>98.61487383742343</v>
+        <v>98.53995567255868</v>
       </c>
     </row>
     <row r="208">
@@ -5220,19 +5220,19 @@
         <v>99.37526572757633</v>
       </c>
       <c r="C208" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D208" t="n">
-        <v>136.7872535550904</v>
+        <v>136.7896739560913</v>
       </c>
       <c r="E208" t="n">
-        <v>97.91945648193359</v>
+        <v>99.04308319091797</v>
       </c>
       <c r="F208" t="n">
-        <v>102.6978447249847</v>
+        <v>103.3336417345983</v>
       </c>
       <c r="G208" t="n">
-        <v>99.33351096315801</v>
+        <v>99.21814654676626</v>
       </c>
     </row>
     <row r="209">
@@ -5243,19 +5243,19 @@
         <v>99.89505174591568</v>
       </c>
       <c r="C209" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D209" t="n">
-        <v>136.7081037295535</v>
+        <v>136.7105131649382</v>
       </c>
       <c r="E209" t="n">
-        <v>97.92974090576172</v>
+        <v>99.08201599121094</v>
       </c>
       <c r="F209" t="n">
-        <v>102.7007283560529</v>
+        <v>103.3505127066433</v>
       </c>
       <c r="G209" t="n">
-        <v>100.0134997782402</v>
+        <v>99.99046844263751</v>
       </c>
     </row>
     <row r="210">
@@ -5266,19 +5266,19 @@
         <v>101.1149583129351</v>
       </c>
       <c r="C210" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D210" t="n">
-        <v>136.8404037434991</v>
+        <v>136.8428304107459</v>
       </c>
       <c r="E210" t="n">
-        <v>98.05021667480469</v>
+        <v>99.22879028320312</v>
       </c>
       <c r="F210" t="n">
-        <v>102.7643013796231</v>
+        <v>103.427104149486</v>
       </c>
       <c r="G210" t="n">
-        <v>100.1370184941432</v>
+        <v>100.0299387371551</v>
       </c>
     </row>
     <row r="211">
@@ -5289,19 +5289,19 @@
         <v>101.6665639459972</v>
       </c>
       <c r="C211" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D211" t="n">
-        <v>136.7211668629859</v>
+        <v>136.7235908796806</v>
       </c>
       <c r="E211" t="n">
-        <v>98.30669403076172</v>
+        <v>99.50316619873047</v>
       </c>
       <c r="F211" t="n">
-        <v>102.8883595713154</v>
+        <v>103.5592242548191</v>
       </c>
       <c r="G211" t="n">
-        <v>101.2950381287903</v>
+        <v>101.2900700228307</v>
       </c>
     </row>
     <row r="212">
@@ -5312,19 +5312,19 @@
         <v>100.711854106888</v>
       </c>
       <c r="C212" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D212" t="n">
-        <v>137.614507443604</v>
+        <v>137.6169560176984</v>
       </c>
       <c r="E212" t="n">
-        <v>98.69313812255859</v>
+        <v>99.8956298828125</v>
       </c>
       <c r="F212" t="n">
-        <v>103.1054855144787</v>
+        <v>103.7803162265966</v>
       </c>
       <c r="G212" t="n">
-        <v>101.8661162818846</v>
+        <v>102.0913993597947</v>
       </c>
     </row>
     <row r="213">
@@ -5332,22 +5332,22 @@
         <v>45100</v>
       </c>
       <c r="B213" t="n">
-        <v>98.81305265703314</v>
+        <v>98.81305265703317</v>
       </c>
       <c r="C213" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D213" t="n">
-        <v>138.250332634056</v>
+        <v>138.2528383718853</v>
       </c>
       <c r="E213" t="n">
-        <v>99.14833068847656</v>
+        <v>100.3455657958984</v>
       </c>
       <c r="F213" t="n">
-        <v>103.3495115833895</v>
+        <v>104.0220633152612</v>
       </c>
       <c r="G213" t="n">
-        <v>100.8966425415711</v>
+        <v>100.8090955018986</v>
       </c>
     </row>
     <row r="214">
@@ -5358,19 +5358,19 @@
         <v>98.35337724956717</v>
       </c>
       <c r="C214" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D214" t="n">
-        <v>137.6804105022321</v>
+        <v>137.6828990928932</v>
       </c>
       <c r="E214" t="n">
-        <v>99.57149505615234</v>
+        <v>100.7590637207031</v>
       </c>
       <c r="F214" t="n">
-        <v>103.5436886434069</v>
+        <v>104.2093925664368</v>
       </c>
       <c r="G214" t="n">
-        <v>98.42551543865883</v>
+        <v>98.58517892798695</v>
       </c>
     </row>
     <row r="215">
@@ -5381,19 +5381,19 @@
         <v>97.89370184210119</v>
       </c>
       <c r="C215" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D215" t="n">
-        <v>137.6012606766999</v>
+        <v>137.6037383017449</v>
       </c>
       <c r="E215" t="n">
-        <v>99.90957641601562</v>
+        <v>101.0887756347656</v>
       </c>
       <c r="F215" t="n">
-        <v>103.7094140713502</v>
+        <v>104.3700890694877</v>
       </c>
       <c r="G215" t="n">
-        <v>97.86661013213674</v>
+        <v>98.27542810070631</v>
       </c>
     </row>
     <row r="216">
@@ -5404,19 +5404,19 @@
         <v>97.43402643463523</v>
       </c>
       <c r="C216" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D216" t="n">
-        <v>137.7335606906468</v>
+        <v>137.7360555475539</v>
       </c>
       <c r="E216" t="n">
-        <v>100.1403579711914</v>
+        <v>101.3153457641602</v>
       </c>
       <c r="F216" t="n">
-        <v>103.8277852211412</v>
+        <v>104.4861549996352</v>
       </c>
       <c r="G216" t="n">
-        <v>97.58386977839164</v>
+        <v>97.5076687153673</v>
       </c>
     </row>
     <row r="217">
@@ -5427,19 +5427,19 @@
         <v>98.2508287956075</v>
       </c>
       <c r="C217" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D217" t="n">
-        <v>137.614323810143</v>
+        <v>137.6168160164979</v>
       </c>
       <c r="E217" t="n">
-        <v>100.2617263793945</v>
+        <v>101.4373931884766</v>
       </c>
       <c r="F217" t="n">
-        <v>103.8847238144451</v>
+        <v>104.5429233898807</v>
       </c>
       <c r="G217" t="n">
-        <v>96.93010044756441</v>
+        <v>96.75459531949561</v>
       </c>
     </row>
     <row r="218">
@@ -5450,19 +5450,19 @@
         <v>98.96156217720994</v>
       </c>
       <c r="C218" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D218" t="n">
-        <v>138.5076643907604</v>
+        <v>138.510181154515</v>
       </c>
       <c r="E218" t="n">
-        <v>100.3104705810547</v>
+        <v>101.4899597167969</v>
       </c>
       <c r="F218" t="n">
-        <v>103.9340870012607</v>
+        <v>104.5958902090702</v>
       </c>
       <c r="G218" t="n">
-        <v>98.11945812351998</v>
+        <v>98.04818292854274</v>
       </c>
     </row>
     <row r="219">
@@ -5473,19 +5473,19 @@
         <v>99.75715236094064</v>
       </c>
       <c r="C219" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D219" t="n">
-        <v>139.1434895811805</v>
+        <v>139.1460635086703</v>
       </c>
       <c r="E219" t="n">
-        <v>100.3219375610352</v>
+        <v>101.5084838867188</v>
       </c>
       <c r="F219" t="n">
-        <v>103.9576807886764</v>
+        <v>104.6242469473921</v>
       </c>
       <c r="G219" t="n">
-        <v>99.29706888208563</v>
+        <v>99.25302808167316</v>
       </c>
     </row>
     <row r="220">
@@ -5493,22 +5493,22 @@
         <v>45107</v>
       </c>
       <c r="B220" t="n">
-        <v>99.34344611285361</v>
+        <v>99.34344611285363</v>
       </c>
       <c r="C220" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D220" t="n">
-        <v>138.5735674493716</v>
+        <v>138.576124229693</v>
       </c>
       <c r="E220" t="n">
-        <v>100.3511123657227</v>
+        <v>101.5444793701172</v>
       </c>
       <c r="F220" t="n">
-        <v>103.9561333613896</v>
+        <v>104.6248467674158</v>
       </c>
       <c r="G220" t="n">
-        <v>100.0029339073486</v>
+        <v>100.0010667648418</v>
       </c>
     </row>
     <row r="221">
@@ -5519,19 +5519,19 @@
         <v>99.58035454233382</v>
       </c>
       <c r="C221" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D221" t="n">
-        <v>138.4944176238365</v>
+        <v>138.4969634385418</v>
       </c>
       <c r="E221" t="n">
-        <v>100.3942108154297</v>
+        <v>101.5936737060547</v>
       </c>
       <c r="F221" t="n">
-        <v>103.9753133791766</v>
+        <v>104.6467912868241</v>
       </c>
       <c r="G221" t="n">
-        <v>99.9813641678175</v>
+        <v>99.957764704471</v>
       </c>
     </row>
     <row r="222">
@@ -5539,22 +5539,22 @@
         <v>45109</v>
       </c>
       <c r="B222" t="n">
-        <v>99.817262971814</v>
+        <v>99.81726297181402</v>
       </c>
       <c r="C222" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D222" t="n">
-        <v>138.6267176377832</v>
+        <v>138.6292806843506</v>
       </c>
       <c r="E222" t="n">
-        <v>100.4523010253906</v>
+        <v>101.658821105957</v>
       </c>
       <c r="F222" t="n">
-        <v>104.0078958021609</v>
+        <v>104.6830117885047</v>
       </c>
       <c r="G222" t="n">
-        <v>100.0330146159978</v>
+        <v>100.0738664462959</v>
       </c>
     </row>
     <row r="223">
@@ -5565,19 +5565,19 @@
         <v>100.0541714012942</v>
       </c>
       <c r="C223" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D223" t="n">
-        <v>138.5074807572742</v>
+        <v>138.5100411532895</v>
       </c>
       <c r="E223" t="n">
-        <v>100.5283126831055</v>
+        <v>101.7435989379883</v>
       </c>
       <c r="F223" t="n">
-        <v>104.0423009787166</v>
+        <v>104.7213437468653</v>
       </c>
       <c r="G223" t="n">
-        <v>100.0198338010047</v>
+        <v>100.0082190184658</v>
       </c>
     </row>
     <row r="224">
@@ -5588,19 +5588,19 @@
         <v>101.5710970086672</v>
       </c>
       <c r="C224" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D224" t="n">
-        <v>139.4008213378923</v>
+        <v>139.4034062913073</v>
       </c>
       <c r="E224" t="n">
-        <v>100.6248245239258</v>
+        <v>101.8508758544922</v>
       </c>
       <c r="F224" t="n">
-        <v>104.1153953972217</v>
+        <v>104.8013758431545</v>
       </c>
       <c r="G224" t="n">
-        <v>100.4537767537422</v>
+        <v>100.33747340887</v>
       </c>
     </row>
     <row r="225">
@@ -5611,19 +5611,19 @@
         <v>101.5604868734655</v>
       </c>
       <c r="C225" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D225" t="n">
-        <v>140.0366465283283</v>
+        <v>140.0392886454784</v>
       </c>
       <c r="E225" t="n">
-        <v>100.7615203857422</v>
+        <v>102.0005340576172</v>
       </c>
       <c r="F225" t="n">
-        <v>104.2011992676457</v>
+        <v>104.8945938790843</v>
       </c>
       <c r="G225" t="n">
-        <v>101.8557886363251</v>
+        <v>101.766657385672</v>
       </c>
     </row>
     <row r="226">
@@ -5634,19 +5634,19 @@
         <v>100.5739547219129</v>
       </c>
       <c r="C226" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D226" t="n">
-        <v>139.466724396512</v>
+        <v>139.4693493664938</v>
       </c>
       <c r="E226" t="n">
-        <v>100.9391326904297</v>
+        <v>102.1903839111328</v>
       </c>
       <c r="F226" t="n">
-        <v>104.2733937532005</v>
+        <v>104.9712969095569</v>
       </c>
       <c r="G226" t="n">
-        <v>101.7119400536935</v>
+        <v>101.7981560669731</v>
       </c>
     </row>
     <row r="227">
@@ -5657,19 +5657,19 @@
         <v>98.40994845098602</v>
       </c>
       <c r="C227" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D227" t="n">
-        <v>139.3875745709782</v>
+        <v>139.3901885753439</v>
       </c>
       <c r="E227" t="n">
-        <v>101.118766784668</v>
+        <v>102.3809814453125</v>
       </c>
       <c r="F227" t="n">
-        <v>104.3604029030676</v>
+        <v>105.0631839033305</v>
       </c>
       <c r="G227" t="n">
-        <v>100.6944251749858</v>
+        <v>100.7031352801377</v>
       </c>
     </row>
     <row r="228">
@@ -5677,22 +5677,22 @@
         <v>45115</v>
       </c>
       <c r="B228" t="n">
-        <v>98.42762931193496</v>
+        <v>98.42762931193494</v>
       </c>
       <c r="C228" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D228" t="n">
-        <v>139.5198745849252</v>
+        <v>139.5225058211529</v>
       </c>
       <c r="E228" t="n">
-        <v>101.2415924072266</v>
+        <v>102.5155487060547</v>
       </c>
       <c r="F228" t="n">
-        <v>104.4251432240011</v>
+        <v>105.133740495099</v>
       </c>
       <c r="G228" t="n">
-        <v>98.30852434166844</v>
+        <v>98.37702314828626</v>
       </c>
     </row>
     <row r="229">
@@ -5703,19 +5703,19 @@
         <v>98.44531017288388</v>
       </c>
       <c r="C229" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D229" t="n">
-        <v>139.4006377044187</v>
+        <v>139.4032662900943</v>
       </c>
       <c r="E229" t="n">
-        <v>101.2959594726562</v>
+        <v>102.5814208984375</v>
       </c>
       <c r="F229" t="n">
-        <v>104.4487947689651</v>
+        <v>105.1627226304617</v>
       </c>
       <c r="G229" t="n">
-        <v>98.34038525148193</v>
+        <v>98.35266675177581</v>
       </c>
     </row>
     <row r="230">
@@ -5726,19 +5726,19 @@
         <v>98.46299103383281</v>
       </c>
       <c r="C230" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D230" t="n">
-        <v>140.2939782850366</v>
+        <v>140.2966314281119</v>
       </c>
       <c r="E230" t="n">
-        <v>101.2914581298828</v>
+        <v>102.5861434936523</v>
       </c>
       <c r="F230" t="n">
-        <v>104.4717068449409</v>
+        <v>105.1920268825126</v>
       </c>
       <c r="G230" t="n">
-        <v>98.28454437625091</v>
+        <v>98.25917240978447</v>
       </c>
     </row>
     <row r="231">
@@ -5749,19 +5749,19 @@
         <v>98.62211068921134</v>
       </c>
       <c r="C231" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D231" t="n">
-        <v>140.9298034754644</v>
+        <v>140.9325137822748</v>
       </c>
       <c r="E231" t="n">
-        <v>101.2464218139648</v>
+        <v>102.5461349487305</v>
       </c>
       <c r="F231" t="n">
-        <v>104.4672320898764</v>
+        <v>105.1914300685886</v>
       </c>
       <c r="G231" t="n">
-        <v>98.32431409486333</v>
+        <v>98.31448175349627</v>
       </c>
     </row>
     <row r="232">
@@ -5772,19 +5772,19 @@
         <v>99.18432645747511</v>
       </c>
       <c r="C232" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D232" t="n">
-        <v>140.359881343652</v>
+        <v>140.3625745032941</v>
       </c>
       <c r="E232" t="n">
-        <v>101.1730346679688</v>
+        <v>102.4768829345703</v>
       </c>
       <c r="F232" t="n">
-        <v>104.4147317512125</v>
+        <v>105.1399707150282</v>
       </c>
       <c r="G232" t="n">
-        <v>99.2842100530072</v>
+        <v>99.19012142518433</v>
       </c>
     </row>
     <row r="233">
@@ -5795,19 +5795,19 @@
         <v>99.93218317254083</v>
       </c>
       <c r="C233" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D233" t="n">
-        <v>140.2807315181174</v>
+        <v>140.2834137121434</v>
       </c>
       <c r="E233" t="n">
-        <v>101.0887145996094</v>
+        <v>102.393684387207</v>
       </c>
       <c r="F233" t="n">
-        <v>104.370614497271</v>
+        <v>105.0964283264775</v>
       </c>
       <c r="G233" t="n">
-        <v>98.6303983700051</v>
+        <v>98.70454953948435</v>
       </c>
     </row>
     <row r="234">
@@ -5818,19 +5818,19 @@
         <v>100.711854106888</v>
       </c>
       <c r="C234" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D234" t="n">
-        <v>140.4130315320643</v>
+        <v>140.4157309579525</v>
       </c>
       <c r="E234" t="n">
-        <v>100.9951095581055</v>
+        <v>102.3024215698242</v>
       </c>
       <c r="F234" t="n">
-        <v>104.3278375757729</v>
+        <v>105.055282952914</v>
       </c>
       <c r="G234" t="n">
-        <v>99.96844438041536</v>
+        <v>100.0644217365743</v>
       </c>
     </row>
     <row r="235">
@@ -5841,19 +5841,19 @@
         <v>100.8250073006082</v>
       </c>
       <c r="C235" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D235" t="n">
-        <v>140.2937946515565</v>
+        <v>140.2964914268925</v>
       </c>
       <c r="E235" t="n">
-        <v>100.9365081787109</v>
+        <v>102.2487487792969</v>
       </c>
       <c r="F235" t="n">
-        <v>104.2953711092622</v>
+        <v>105.0251334659621</v>
       </c>
       <c r="G235" t="n">
-        <v>100.9122480295331</v>
+        <v>100.9147584289307</v>
       </c>
     </row>
     <row r="236">
@@ -5864,19 +5864,19 @@
         <v>100.9381604943283</v>
       </c>
       <c r="C236" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D236" t="n">
-        <v>141.1871352321746</v>
+        <v>141.1898565649102</v>
       </c>
       <c r="E236" t="n">
-        <v>100.9344482421875</v>
+        <v>102.2526550292969</v>
       </c>
       <c r="F236" t="n">
-        <v>104.3194962589685</v>
+        <v>105.0540333601029</v>
       </c>
       <c r="G236" t="n">
-        <v>101.1793110160757</v>
+        <v>101.1513473467079</v>
       </c>
     </row>
     <row r="237">
@@ -5887,19 +5887,19 @@
         <v>101.0513136880485</v>
       </c>
       <c r="C237" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D237" t="n">
-        <v>141.8229604226065</v>
+        <v>141.8257389190773</v>
       </c>
       <c r="E237" t="n">
-        <v>100.9950637817383</v>
+        <v>102.3190994262695</v>
       </c>
       <c r="F237" t="n">
-        <v>104.3675041088846</v>
+        <v>105.1060908125364</v>
       </c>
       <c r="G237" t="n">
-        <v>101.5837981800237</v>
+        <v>101.6058757055113</v>
       </c>
     </row>
     <row r="238">
@@ -5910,19 +5910,19 @@
         <v>102.3136446095511</v>
       </c>
       <c r="C238" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D238" t="n">
-        <v>141.2530382907921</v>
+        <v>141.2557996400946</v>
       </c>
       <c r="E238" t="n">
-        <v>101.1146545410156</v>
+        <v>102.4438400268555</v>
       </c>
       <c r="F238" t="n">
-        <v>104.4108709272031</v>
+        <v>105.1505901686928</v>
       </c>
       <c r="G238" t="n">
-        <v>101.6927331220002</v>
+        <v>101.6926523729305</v>
       </c>
     </row>
     <row r="239">
@@ -5933,19 +5933,19 @@
         <v>103.9578675598593</v>
       </c>
       <c r="C239" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D239" t="n">
-        <v>141.1738884652579</v>
+        <v>141.1766388489443</v>
       </c>
       <c r="E239" t="n">
-        <v>101.2882232666016</v>
+        <v>102.621467590332</v>
       </c>
       <c r="F239" t="n">
-        <v>104.4948702809276</v>
+        <v>105.2360608416655</v>
       </c>
       <c r="G239" t="n">
-        <v>102.4882159202071</v>
+        <v>102.3424505354581</v>
       </c>
     </row>
     <row r="240">
@@ -5956,19 +5956,19 @@
         <v>105.6339128226108</v>
       </c>
       <c r="C240" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D240" t="n">
-        <v>141.3061884792049</v>
+        <v>141.3089560947534</v>
       </c>
       <c r="E240" t="n">
-        <v>101.5065307617188</v>
+        <v>102.8461608886719</v>
       </c>
       <c r="F240" t="n">
-        <v>104.6070463623591</v>
+        <v>105.3511959856801</v>
       </c>
       <c r="G240" t="n">
-        <v>104.6871961150718</v>
+        <v>104.5883355781277</v>
       </c>
     </row>
     <row r="241">
@@ -5979,19 +5979,19 @@
         <v>104.4033961203897</v>
       </c>
       <c r="C241" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D241" t="n">
-        <v>141.1869515986977</v>
+        <v>141.189716563694</v>
       </c>
       <c r="E241" t="n">
-        <v>101.7814636230469</v>
+        <v>103.1303634643555</v>
       </c>
       <c r="F241" t="n">
-        <v>104.7402712715809</v>
+        <v>105.4881722006326</v>
       </c>
       <c r="G241" t="n">
-        <v>105.596834687334</v>
+        <v>105.7405373158723</v>
       </c>
     </row>
     <row r="242">
@@ -6002,19 +6002,19 @@
         <v>104.4847243039459</v>
       </c>
       <c r="C242" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D242" t="n">
-        <v>142.0802921793157</v>
+        <v>142.0830817017117</v>
       </c>
       <c r="E242" t="n">
-        <v>102.0856475830078</v>
+        <v>103.4482498168945</v>
       </c>
       <c r="F242" t="n">
-        <v>104.9165303629376</v>
+        <v>105.6723760498515</v>
       </c>
       <c r="G242" t="n">
-        <v>104.7656344862001</v>
+        <v>104.9905326842017</v>
       </c>
     </row>
     <row r="243">
@@ -6022,22 +6022,22 @@
         <v>45130</v>
       </c>
       <c r="B243" t="n">
-        <v>104.566052487502</v>
+        <v>104.5660524875021</v>
       </c>
       <c r="C243" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D243" t="n">
-        <v>142.7161173697455</v>
+        <v>142.7189640558767</v>
       </c>
       <c r="E243" t="n">
-        <v>102.4099502563477</v>
+        <v>103.7892227172852</v>
       </c>
       <c r="F243" t="n">
-        <v>105.0955387316524</v>
+        <v>105.8602290955467</v>
       </c>
       <c r="G243" t="n">
-        <v>104.8102159267549</v>
+        <v>104.8549397903653</v>
       </c>
     </row>
     <row r="244">
@@ -6048,19 +6048,19 @@
         <v>104.6473806710583</v>
       </c>
       <c r="C244" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D244" t="n">
-        <v>142.1461952379322</v>
+        <v>142.149024776895</v>
       </c>
       <c r="E244" t="n">
-        <v>102.7514419555664</v>
+        <v>104.1472549438477</v>
       </c>
       <c r="F244" t="n">
-        <v>105.2491388568557</v>
+        <v>106.0201230439882</v>
       </c>
       <c r="G244" t="n">
-        <v>104.8037384974936</v>
+        <v>104.8197048937307</v>
       </c>
     </row>
     <row r="245">
@@ -6071,19 +6071,19 @@
         <v>103.6926708319491</v>
       </c>
       <c r="C245" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D245" t="n">
-        <v>142.0670454123978</v>
+        <v>142.0698639857444</v>
       </c>
       <c r="E245" t="n">
-        <v>103.1086730957031</v>
+        <v>104.5180511474609</v>
       </c>
       <c r="F245" t="n">
-        <v>105.4243781397794</v>
+        <v>106.2011404393731</v>
       </c>
       <c r="G245" t="n">
-        <v>104.8612260964512</v>
+        <v>104.9141014312508</v>
       </c>
     </row>
     <row r="246">
@@ -6094,19 +6094,19 @@
         <v>105.1459437212736</v>
       </c>
       <c r="C246" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D246" t="n">
-        <v>142.1993454263447</v>
+        <v>142.2021812315535</v>
       </c>
       <c r="E246" t="n">
-        <v>103.453254699707</v>
+        <v>104.8744049072266</v>
       </c>
       <c r="F246" t="n">
-        <v>105.5992831030469</v>
+        <v>106.3814000951064</v>
       </c>
       <c r="G246" t="n">
-        <v>104.2211337281102</v>
+        <v>104.2209851338182</v>
       </c>
     </row>
     <row r="247">
@@ -6117,19 +6117,19 @@
         <v>106.5461821209131</v>
       </c>
       <c r="C247" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D247" t="n">
-        <v>142.0801085458372</v>
+        <v>142.0829417004938</v>
       </c>
       <c r="E247" t="n">
-        <v>103.7774429321289</v>
+        <v>105.2118530273438</v>
       </c>
       <c r="F247" t="n">
-        <v>105.7569792952277</v>
+        <v>106.544716794678</v>
       </c>
       <c r="G247" t="n">
-        <v>105.2566117868826</v>
+        <v>105.1073393125013</v>
       </c>
     </row>
     <row r="248">
@@ -6140,19 +6140,19 @@
         <v>105.4853952092722</v>
       </c>
       <c r="C248" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D248" t="n">
-        <v>142.9734491264553</v>
+        <v>142.9763068385116</v>
       </c>
       <c r="E248" t="n">
-        <v>104.0864562988281</v>
+        <v>105.5378646850586</v>
       </c>
       <c r="F248" t="n">
-        <v>105.9356378311644</v>
+        <v>106.7329375201176</v>
       </c>
       <c r="G248" t="n">
-        <v>105.8446611086465</v>
+        <v>105.9835126989169</v>
       </c>
     </row>
     <row r="249">
@@ -6163,19 +6163,19 @@
         <v>105.4465021710816</v>
       </c>
       <c r="C249" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D249" t="n">
-        <v>143.6092743168861</v>
+        <v>143.6121891926775</v>
       </c>
       <c r="E249" t="n">
-        <v>104.3728408813477</v>
+        <v>105.8445205688477</v>
       </c>
       <c r="F249" t="n">
-        <v>106.0958054100844</v>
+        <v>106.9038151629808</v>
       </c>
       <c r="G249" t="n">
-        <v>105.7623115436574</v>
+        <v>105.820577691213</v>
       </c>
     </row>
     <row r="250">
@@ -6186,19 +6186,19 @@
         <v>105.4076091328911</v>
       </c>
       <c r="C250" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D250" t="n">
-        <v>143.0393521850723</v>
+        <v>143.0422499136954</v>
       </c>
       <c r="E250" t="n">
-        <v>104.6360702514648</v>
+        <v>106.1287689208984</v>
       </c>
       <c r="F250" t="n">
-        <v>106.2105299554537</v>
+        <v>107.0272100879848</v>
       </c>
       <c r="G250" t="n">
-        <v>105.7538992805582</v>
+        <v>105.6425338377875</v>
       </c>
     </row>
     <row r="251">
@@ -6209,19 +6209,19 @@
         <v>105.3687160947006</v>
       </c>
       <c r="C251" t="n">
-        <v>105.6746781367171</v>
+        <v>105.6746781373967</v>
       </c>
       <c r="D251" t="n">
-        <v>142.9602023595379</v>
+        <v>142.9630891225449</v>
       </c>
       <c r="E251" t="n">
-        <v>104.8768157958984</v>
+        <v>106.3899307250977</v>
       </c>
       <c r="F251" t="n">
-        <v>106.3279002808579</v>
+        <v>107.1540015617389</v>
       </c>
       <c r="G251" t="n">
-        <v>105.6886572302988</v>
+        <v>105.6742686999579</v>
       </c>
     </row>
   </sheetData>
